--- a/tests/regression_data_linux/performance_analysis_kacker_okapuu_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_kacker_okapuu_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023341585326333</v>
+        <v>2.023341589441627</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999804971</v>
+        <v>2.299999999961625</v>
       </c>
       <c r="D2" t="n">
-        <v>2.699358783995156</v>
+        <v>2.69935880166054</v>
       </c>
       <c r="E2" t="n">
-        <v>89.543198705157</v>
+        <v>89.54319860014516</v>
       </c>
       <c r="F2" t="n">
-        <v>76.81765913461118</v>
+        <v>76.81765923954607</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142116204854908</v>
+        <v>0.1421162026769328</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.95977533946609</v>
+        <v>-75.95977544222301</v>
       </c>
       <c r="I2" t="n">
-        <v>130301.9351399929</v>
+        <v>130301.9361707222</v>
       </c>
       <c r="J2" t="n">
-        <v>80.08723733250949</v>
+        <v>80.08723796602473</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.87211994726595</v>
+        <v>-23.87211806069573</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6445923657834</v>
+        <v>133.6445913417108</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>373512.9912516291</v>
+        <v>373512.9911856891</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7106315394217826</v>
+        <v>0.7106315417470715</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078552333547866</v>
+        <v>2.078552336779</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000001279166</v>
+        <v>2.399999999679923</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701669620600207</v>
+        <v>2.701669624229033</v>
       </c>
       <c r="E3" t="n">
-        <v>89.52557298838904</v>
+        <v>89.52557284172713</v>
       </c>
       <c r="F3" t="n">
-        <v>75.98406127707662</v>
+        <v>75.98406136727731</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512585874548793</v>
+        <v>0.1512585850569194</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.1353198645315</v>
+        <v>-75.13531995233423</v>
       </c>
       <c r="I3" t="n">
-        <v>134798.6311303951</v>
+        <v>134798.6314714733</v>
       </c>
       <c r="J3" t="n">
-        <v>82.85103327006459</v>
+        <v>82.85103347970086</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41202604570008</v>
+        <v>-26.41202500528943</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9419864273828</v>
+        <v>140.9419853101793</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>371889.8658528713</v>
+        <v>371889.8657936415</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983877187713874</v>
+        <v>0.6983877192404173</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.35928864264243</v>
+        <v>79.3592891958602</v>
       </c>
       <c r="D2" t="n">
-        <v>79.35928864264243</v>
+        <v>79.3592891958602</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.35928864264243</v>
+        <v>79.3592891958602</v>
       </c>
       <c r="H2" t="n">
-        <v>79.35928864264243</v>
+        <v>79.3592891958602</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4602704143317</v>
+        <v>292.460270370654</v>
       </c>
       <c r="L2" t="n">
-        <v>132943.696839154</v>
+        <v>132943.6967697537</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584391130575539</v>
+        <v>1.584391129985549</v>
       </c>
       <c r="N2" t="n">
-        <v>334727.1003517731</v>
+        <v>334727.1003205276</v>
       </c>
       <c r="O2" t="n">
-        <v>418635.4827414558</v>
+        <v>418635.4826976533</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687717.5477272859</v>
+        <v>-687717.5476058595</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7177923749983</v>
+        <v>717.7177923730184</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653328248752</v>
+        <v>1006.653328246456</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575411872734</v>
+        <v>1.402575411873403</v>
       </c>
       <c r="U2" t="n">
-        <v>0.999498718051373</v>
+        <v>0.9994987180510676</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9714983386621</v>
+        <v>342.9714983130277</v>
       </c>
       <c r="W2" t="n">
-        <v>186371.055171464</v>
+        <v>186371.0550742043</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365640061864681e-06</v>
+        <v>5.365640064664797e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132877.7430388712</v>
+        <v>132877.7429694642</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525714819730697e-06</v>
+        <v>7.525714823661656e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432196313396071</v>
+        <v>0.003432196313907825</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817668480688023e-05</v>
+        <v>1.817668480474342e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0258324312905502</v>
+        <v>0.02583243128725875</v>
       </c>
       <c r="AD2" t="n">
-        <v>132943.696839154</v>
+        <v>132943.6967697537</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584391130575539</v>
+        <v>1.584391129985549</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584391130575539</v>
+        <v>1.584391129985549</v>
       </c>
       <c r="AG2" t="n">
-        <v>334727.1003517731</v>
+        <v>334727.1003205276</v>
       </c>
       <c r="AH2" t="n">
-        <v>418635.4827414558</v>
+        <v>418635.4826976533</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7177923749983</v>
+        <v>717.7177923730184</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653328248752</v>
+        <v>1006.653328246456</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9714983386621</v>
+        <v>342.9714983130277</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.999498718051373</v>
+        <v>0.9994987180510676</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817668480688023e-05</v>
+        <v>1.817668480474342e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0258324312905502</v>
+        <v>0.02583243128725875</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2313874156513154</v>
+        <v>0.2313874172816236</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2313874156513154</v>
+        <v>0.2313874172816236</v>
       </c>
       <c r="DH2" t="n">
-        <v>180960.268544266</v>
+        <v>180960.2697596374</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.699358783953769</v>
+        <v>2.699358801765963</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>261.2176178459937</v>
+        <v>261.2176231765762</v>
       </c>
       <c r="DU2" t="n">
-        <v>107.8099287465743</v>
+        <v>107.8099309863852</v>
       </c>
       <c r="DV2" t="n">
-        <v>237.9320557150596</v>
+        <v>237.9320605524414</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.62413753883365</v>
+        <v>65.62413752925698</v>
       </c>
       <c r="DX2" t="n">
-        <v>261.2176178459937</v>
+        <v>261.2176231765762</v>
       </c>
       <c r="DY2" t="n">
-        <v>107.8099287465743</v>
+        <v>107.8099309863852</v>
       </c>
       <c r="DZ2" t="n">
-        <v>237.9320557150596</v>
+        <v>237.9320605524414</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.62413753883365</v>
+        <v>65.62413752925698</v>
       </c>
       <c r="EB2" t="n">
-        <v>261.5538391717158</v>
+        <v>261.5538377816702</v>
       </c>
       <c r="EC2" t="n">
-        <v>87504.69018248432</v>
+        <v>87504.68847275236</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.166276190981929</v>
+        <v>1.166276174399141</v>
       </c>
       <c r="EE2" t="n">
-        <v>312637.977236847</v>
+        <v>312637.9762437604</v>
       </c>
       <c r="EF2" t="n">
-        <v>387667.1091518276</v>
+        <v>387667.1077595735</v>
       </c>
       <c r="EG2" t="n">
-        <v>3790.988615749842</v>
+        <v>3790.9886160317</v>
       </c>
       <c r="EH2" t="n">
-        <v>-603880.5175538121</v>
+        <v>-603880.51375014</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5889934638675</v>
+        <v>716.5889934248969</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.256678796793</v>
+        <v>1005.256678746662</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402835778899639</v>
+        <v>1.402835778905972</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993384387278608</v>
+        <v>0.9993384387222634</v>
       </c>
       <c r="EM2" t="n">
-        <v>324.3211384140193</v>
+        <v>324.3211375511074</v>
       </c>
       <c r="EN2" t="n">
-        <v>122673.8290863535</v>
+        <v>122673.8266893167</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.151697941180858e-06</v>
+        <v>8.151698100464387e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>87447.03473600937</v>
+        <v>87447.03302690653</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.143549353067103e-05</v>
+        <v>1.143549375417129e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003836601537763706</v>
+        <v>0.003836601558101077</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.663030168615449e-05</v>
+        <v>1.663030161502313e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02346192964174892</v>
+        <v>0.02346192953325707</v>
       </c>
       <c r="EU2" t="n">
-        <v>87504.69018248432</v>
+        <v>87504.68847275236</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.166276190981929</v>
+        <v>1.166276174399141</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.166276190981929</v>
+        <v>1.166276174399141</v>
       </c>
       <c r="EX2" t="n">
-        <v>312637.977236847</v>
+        <v>312637.9762437604</v>
       </c>
       <c r="EY2" t="n">
-        <v>387667.1091518276</v>
+        <v>387667.1077595735</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3790.988615749842</v>
+        <v>3790.9886160317</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5889934638675</v>
+        <v>716.5889934248969</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.256678796793</v>
+        <v>1005.256678746662</v>
       </c>
       <c r="FC2" t="n">
-        <v>324.3211384140193</v>
+        <v>324.3211375511074</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993384387278608</v>
+        <v>0.9993384387222634</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.663030168615449e-05</v>
+        <v>1.663030161502313e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02346192964174892</v>
+        <v>0.02346192953325707</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5911242360818</v>
+        <v>295.5911242357683</v>
       </c>
       <c r="FJ2" t="n">
-        <v>134171.9684865783</v>
+        <v>134171.9683514302</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.582036722452747</v>
+        <v>1.58203672086015</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.7888202603</v>
+        <v>336974.788820311</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FN2" t="n">
-        <v>3790.988615747922</v>
+        <v>3790.988616036925</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698798.1558065258</v>
+        <v>-698798.1558907642</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8532654823621</v>
+        <v>717.8532654820099</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.758731674395</v>
+        <v>1006.758731672176</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402457549591145</v>
+        <v>1.402457549588742</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995340929335971</v>
+        <v>0.9995340929340573</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8001192152012</v>
+        <v>344.8001192148799</v>
       </c>
       <c r="FU2" t="n">
-        <v>188083.7931642401</v>
+        <v>188083.7929745503</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.316779203441372e-06</v>
+        <v>5.316779208803549e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>134110.1505846446</v>
+        <v>134110.1504496191</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.456557133375546e-06</v>
+        <v>7.456557140882996e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395546168358603</v>
+        <v>0.003395546168349688</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832896897521705e-05</v>
+        <v>1.832896897518235e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606674484504922</v>
+        <v>0.02606674484498251</v>
       </c>
       <c r="GB2" t="n">
-        <v>134171.9684865783</v>
+        <v>134171.9683514302</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.582036722452747</v>
+        <v>1.58203672086015</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.582036722452747</v>
+        <v>1.58203672086015</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.7888202603</v>
+        <v>336974.788820311</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GG2" t="n">
-        <v>3790.988615747922</v>
+        <v>3790.988616036925</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8532654823621</v>
+        <v>717.8532654820099</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.758731674395</v>
+        <v>1006.758731672176</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8001192152012</v>
+        <v>344.8001192148799</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995340929335971</v>
+        <v>0.9995340929340573</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832896897521705e-05</v>
+        <v>1.832896897518235e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606674484504922</v>
+        <v>0.02606674484498251</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5911242360818</v>
+        <v>295.5911242357683</v>
       </c>
       <c r="GQ2" t="n">
-        <v>134171.9684865783</v>
+        <v>134171.9683514302</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.582036722452747</v>
+        <v>1.58203672086015</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.7888202603</v>
+        <v>336974.788820311</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GU2" t="n">
-        <v>3790.988615747922</v>
+        <v>3790.988616036925</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698798.1558065258</v>
+        <v>-698798.1558907642</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8532654823621</v>
+        <v>717.8532654820099</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.758731674395</v>
+        <v>1006.758731672176</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402457549591145</v>
+        <v>1.402457549588742</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995340929335971</v>
+        <v>0.9995340929340573</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8001192152012</v>
+        <v>344.8001192148799</v>
       </c>
       <c r="HB2" t="n">
-        <v>188083.7931642401</v>
+        <v>188083.7929745503</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.316779203441372e-06</v>
+        <v>5.316779208803549e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>134110.1505846446</v>
+        <v>134110.1504496191</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.456557133375546e-06</v>
+        <v>7.456557140882996e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395546168358603</v>
+        <v>0.003395546168349688</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832896897521705e-05</v>
+        <v>1.832896897518235e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606674484504922</v>
+        <v>0.02606674484498251</v>
       </c>
       <c r="HI2" t="n">
-        <v>134171.9684865783</v>
+        <v>134171.9683514302</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.582036722452747</v>
+        <v>1.58203672086015</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.582036722452747</v>
+        <v>1.58203672086015</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.7888202603</v>
+        <v>336974.788820311</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HN2" t="n">
-        <v>3790.988615747922</v>
+        <v>3790.988616036925</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8532654823621</v>
+        <v>717.8532654820099</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.758731674395</v>
+        <v>1006.758731672176</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8001192152012</v>
+        <v>344.8001192148799</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995340929335971</v>
+        <v>0.9995340929340573</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832896897521705e-05</v>
+        <v>1.832896897518235e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606674484504922</v>
+        <v>0.02606674484498251</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8054289002665334</v>
+        <v>0.8054289188456391</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8054289002665334</v>
+        <v>0.8054289188456391</v>
       </c>
       <c r="HY2" t="n">
-        <v>479227.2292992327</v>
+        <v>479227.234314494</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.699358783833568</v>
+        <v>2.699358801533198</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01760661580392565</v>
+        <v>0.01760661579677169</v>
       </c>
       <c r="IC2" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.0491414872258233</v>
+        <v>0.04914148722588343</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.08202817156899209</v>
+        <v>0.08202817156189826</v>
       </c>
       <c r="IH2" t="n">
-        <v>-5.633188360221197e-12</v>
+        <v>7.596134832255075e-11</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>261.2176178459937</v>
+        <v>261.2176231765762</v>
       </c>
       <c r="IL2" t="n">
-        <v>107.8099287465743</v>
+        <v>107.8099309863852</v>
       </c>
       <c r="IM2" t="n">
-        <v>237.9320557150596</v>
+        <v>237.9320605524414</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.62413753883365</v>
+        <v>65.62413752925698</v>
       </c>
       <c r="IO2" t="n">
-        <v>129.9920436750664</v>
+        <v>129.9920482354021</v>
       </c>
       <c r="IP2" t="n">
-        <v>107.8099287465743</v>
+        <v>107.8099309863852</v>
       </c>
       <c r="IQ2" t="n">
-        <v>72.62885571505956</v>
+        <v>72.62886055244138</v>
       </c>
       <c r="IR2" t="n">
-        <v>33.9671644925922</v>
+        <v>33.96716570931996</v>
       </c>
       <c r="IS2" t="n">
-        <v>261.5538391720032</v>
+        <v>261.5538377816832</v>
       </c>
       <c r="IT2" t="n">
-        <v>87504.69018482999</v>
+        <v>87504.68847493356</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.166276191011927</v>
+        <v>1.166276174428173</v>
       </c>
       <c r="IV2" t="n">
-        <v>312637.9772370476</v>
+        <v>312637.9762437646</v>
       </c>
       <c r="IW2" t="n">
-        <v>387667.1091521096</v>
+        <v>387667.10775958</v>
       </c>
       <c r="IX2" t="n">
-        <v>3790.988615743229</v>
+        <v>3790.988616024575</v>
       </c>
       <c r="IY2" t="n">
-        <v>-603880.5175528899</v>
+        <v>-603880.5137483191</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5889934638826</v>
+        <v>716.5889934249047</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.256678796847</v>
+        <v>1005.25667874671</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402835778899685</v>
+        <v>1.402835778906024</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993384387278469</v>
+        <v>0.9993384387222471</v>
       </c>
       <c r="JD2" t="n">
-        <v>324.3211384141984</v>
+        <v>324.3211375511162</v>
       </c>
       <c r="JE2" t="n">
-        <v>122673.8290896443</v>
+        <v>122673.8266923771</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.151697940962183e-06</v>
+        <v>8.151698100261021e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>87447.03473835233</v>
+        <v>87447.03302908488</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.143549353036464e-05</v>
+        <v>1.143549375388642e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003836601537759803</v>
+        <v>0.003836601558101216</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.66303016861695e-05</v>
+        <v>1.663030161502413e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02346192964177207</v>
+        <v>0.02346192953325886</v>
       </c>
       <c r="JL2" t="n">
-        <v>87504.69018482999</v>
+        <v>87504.68847493356</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.166276191011927</v>
+        <v>1.166276174428173</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.166276191011927</v>
+        <v>1.166276174428173</v>
       </c>
       <c r="JO2" t="n">
-        <v>312637.9772370476</v>
+        <v>312637.9762437646</v>
       </c>
       <c r="JP2" t="n">
-        <v>387667.1091521096</v>
+        <v>387667.10775958</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3790.988615743229</v>
+        <v>3790.988616024575</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5889934638826</v>
+        <v>716.5889934249047</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.256678796847</v>
+        <v>1005.25667874671</v>
       </c>
       <c r="JT2" t="n">
-        <v>324.3211384141984</v>
+        <v>324.3211375511162</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993384387278469</v>
+        <v>0.9993384387222471</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.66303016861695e-05</v>
+        <v>1.663030161502413e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02346192964177207</v>
+        <v>0.02346192953325886</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5911242361736</v>
+        <v>295.5911242358684</v>
       </c>
       <c r="KA2" t="n">
-        <v>134171.968483148</v>
+        <v>134171.96835158</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.582036722411788</v>
+        <v>1.582036720861379</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.788820333</v>
+        <v>336974.7888203826</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KE2" t="n">
-        <v>3790.988615755597</v>
+        <v>3790.988616036944</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698798.1558090423</v>
+        <v>-698798.1558910491</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8532654823574</v>
+        <v>717.8532654820148</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.758731674342</v>
+        <v>1006.758731672182</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.40245754959108</v>
+        <v>1.40245754958874</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995340929336101</v>
+        <v>0.999534092934058</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8001192152511</v>
+        <v>344.8001192149383</v>
       </c>
       <c r="KL2" t="n">
-        <v>188083.7931594251</v>
+        <v>188083.7929747601</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.316779203577483e-06</v>
+        <v>5.316779208797617e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>134110.1505812176</v>
+        <v>134110.1504497689</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.456557133566088e-06</v>
+        <v>7.456557140874665e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395546168357219</v>
+        <v>0.003395546168348539</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.8328968975221e-05</v>
+        <v>1.832896897518723e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606674484505495</v>
+        <v>0.02606674484499003</v>
       </c>
       <c r="KS2" t="n">
-        <v>134171.968483148</v>
+        <v>134171.96835158</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.582036722411788</v>
+        <v>1.582036720861379</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.582036722411788</v>
+        <v>1.582036720861379</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.788820333</v>
+        <v>336974.7888203826</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KX2" t="n">
-        <v>3790.988615755597</v>
+        <v>3790.988616036944</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8532654823574</v>
+        <v>717.8532654820148</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.758731674342</v>
+        <v>1006.758731672182</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8001192152511</v>
+        <v>344.8001192149383</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995340929336101</v>
+        <v>0.999534092934058</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.8328968975221e-05</v>
+        <v>1.832896897518723e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606674484505495</v>
+        <v>0.02606674484499003</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>269.9868327691386</v>
+        <v>269.9868319708442</v>
       </c>
       <c r="LH2" t="n">
-        <v>97760.63666898137</v>
+        <v>97760.63556602226</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.262219945589463</v>
+        <v>1.262219935085312</v>
       </c>
       <c r="LJ2" t="n">
-        <v>318664.7265360457</v>
+        <v>318664.7259656757</v>
       </c>
       <c r="LK2" t="n">
-        <v>396116.0748613384</v>
+        <v>396116.0740616909</v>
       </c>
       <c r="LL2" t="n">
-        <v>3790.988615750373</v>
+        <v>3790.988616025117</v>
       </c>
       <c r="LM2" t="n">
-        <v>-627400.934568966</v>
+        <v>-627400.9324164655</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8417443671905</v>
+        <v>716.8417443412087</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.567732152784</v>
+        <v>1005.56773211966</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402775075606784</v>
+        <v>1.402775075611418</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993788827695826</v>
+        <v>0.9993788827660985</v>
       </c>
       <c r="LR2" t="n">
-        <v>329.5143190789801</v>
+        <v>329.5143185912136</v>
       </c>
       <c r="LS2" t="n">
-        <v>137051.445958488</v>
+        <v>137051.4444122074</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.296530095004571e-06</v>
+        <v>7.296530177327548e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97700.22888324063</v>
+        <v>97700.22778061671</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.023539055568721e-05</v>
+        <v>1.023539067120164e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003716989844765482</v>
+        <v>0.003716989855722933</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.705904111908994e-05</v>
+        <v>1.705904107874393e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02411669245295928</v>
+        <v>0.02411669239124692</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97760.63666898137</v>
+        <v>97760.63556602226</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.262219945589463</v>
+        <v>1.262219935085312</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.262219945589463</v>
+        <v>1.262219935085312</v>
       </c>
       <c r="MC2" t="n">
-        <v>318664.7265360457</v>
+        <v>318664.7259656757</v>
       </c>
       <c r="MD2" t="n">
-        <v>396116.0748613384</v>
+        <v>396116.0740616909</v>
       </c>
       <c r="ME2" t="n">
-        <v>3790.988615750373</v>
+        <v>3790.988616025117</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8417443671905</v>
+        <v>716.8417443412087</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.567732152784</v>
+        <v>1005.56773211966</v>
       </c>
       <c r="MH2" t="n">
-        <v>329.5143190789801</v>
+        <v>329.5143185912136</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993788827695826</v>
+        <v>0.9993788827660985</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.705904111908994e-05</v>
+        <v>1.705904107874393e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02411669245295928</v>
+        <v>0.02411669239124692</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8054289002660887</v>
+        <v>0.8054289188456172</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4008127386043224</v>
+        <v>0.4008127537321372</v>
       </c>
       <c r="MP2" t="n">
-        <v>237570.4744646212</v>
+        <v>237570.480437215</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.699358783903</v>
+        <v>2.699358801600394</v>
       </c>
       <c r="MR2" t="n">
-        <v>382453.5008963124</v>
+        <v>382453.5000966775</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>133.6445923657834</v>
+        <v>133.6445913417108</v>
       </c>
       <c r="MU2" t="n">
-        <v>122.2114295784737</v>
+        <v>122.2114304228759</v>
       </c>
       <c r="MV2" t="n">
-        <v>-54.08552069641343</v>
+        <v>-54.08551625793581</v>
       </c>
       <c r="MW2" t="n">
-        <v>-23.87211994726595</v>
+        <v>-23.87211806069573</v>
       </c>
       <c r="MX2" t="n">
-        <v>251.1315278662222</v>
+        <v>251.1315243996869</v>
       </c>
       <c r="MY2" t="n">
-        <v>122.2114295784737</v>
+        <v>122.2114304228759</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-219.3887206964134</v>
+        <v>-219.3887162579358</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.87981882020158</v>
+        <v>-60.879818159107</v>
       </c>
       <c r="NB2" t="n">
-        <v>238.4919654731587</v>
+        <v>238.491965543749</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000408835</v>
+        <v>60000.00000000173</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8770577778060487</v>
+        <v>0.8770577774858641</v>
       </c>
       <c r="NE2" t="n">
-        <v>296172.008369429</v>
+        <v>296172.0084200359</v>
       </c>
       <c r="NF2" t="n">
-        <v>364582.5527171204</v>
+        <v>364582.5527880422</v>
       </c>
       <c r="NG2" t="n">
-        <v>3806.836359193876</v>
+        <v>3806.836359510789</v>
       </c>
       <c r="NH2" t="n">
-        <v>-543317.3328217107</v>
+        <v>-543317.3330950961</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0542669151439</v>
+        <v>716.0542669160883</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.486594902588</v>
+        <v>1004.486594902454</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402807917380408</v>
+        <v>1.402807917378371</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992935019426912</v>
+        <v>0.9992935019436604</v>
       </c>
       <c r="NM2" t="n">
-        <v>309.6759322778171</v>
+        <v>309.6759323237226</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.12436358002</v>
+        <v>84109.12435781075</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188931649885311e-05</v>
+        <v>1.188931649966863e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59957.69151392068</v>
+        <v>59957.69150989505</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667842731683265e-05</v>
+        <v>1.667842731795246e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004206072377800488</v>
+        <v>0.004206072376543611</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.542868822135444e-05</v>
+        <v>1.542868822508649e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02163589355683502</v>
+        <v>0.02163589356247213</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000408835</v>
+        <v>60000.00000000173</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8770577778060487</v>
+        <v>0.8770577774858641</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8770577778060487</v>
+        <v>0.8770577774858641</v>
       </c>
       <c r="NX2" t="n">
-        <v>296172.008369429</v>
+        <v>296172.0084200359</v>
       </c>
       <c r="NY2" t="n">
-        <v>364582.5527171204</v>
+        <v>364582.5527880422</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3806.836359193876</v>
+        <v>3806.836359510789</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0542669151439</v>
+        <v>716.0542669160883</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.486594902588</v>
+        <v>1004.486594902454</v>
       </c>
       <c r="OC2" t="n">
-        <v>309.6759322778171</v>
+        <v>309.6759323237226</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992935019426912</v>
+        <v>0.9992935019436604</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.542868822135444e-05</v>
+        <v>1.542868822508649e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02163589355683502</v>
+        <v>0.02163589356247213</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>247.4095313500515</v>
+        <v>247.4095312839631</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68204.00519541749</v>
+        <v>68204.00505669671</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9610201087407984</v>
+        <v>0.9610201070423715</v>
       </c>
       <c r="OL2" t="n">
-        <v>302542.5666215102</v>
+        <v>302542.5665744903</v>
       </c>
       <c r="OM2" t="n">
-        <v>373512.9912516291</v>
+        <v>373512.9911856891</v>
       </c>
       <c r="ON2" t="n">
-        <v>3806.836359202509</v>
+        <v>3806.836359519424</v>
       </c>
       <c r="OO2" t="n">
-        <v>-568334.6083050002</v>
+        <v>-568334.6081977604</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2272327149218</v>
+        <v>716.2272327132133</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.716528036143</v>
+        <v>1004.716528032421</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.40279017907163</v>
+        <v>1.402790179069779</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9993203859029441</v>
+        <v>0.9993203859034723</v>
       </c>
       <c r="OT2" t="n">
-        <v>315.4189686647974</v>
+        <v>315.4189686226275</v>
       </c>
       <c r="OU2" t="n">
-        <v>95611.05048865825</v>
+        <v>95611.05029411781</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.045904207608956e-05</v>
+        <v>1.045904209737064e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68157.77007501856</v>
+        <v>68157.76993642739</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.467184150683539e-05</v>
+        <v>1.467184153666893e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004054760331930427</v>
+        <v>0.004054760332997261</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.589816726962215e-05</v>
+        <v>1.589816726615531e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02234742247454286</v>
+        <v>0.02234742246926963</v>
       </c>
       <c r="PB2" t="n">
-        <v>68204.00519541749</v>
+        <v>68204.00505669671</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9610201087407984</v>
+        <v>0.9610201070423715</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9610201087407984</v>
+        <v>0.9610201070423715</v>
       </c>
       <c r="PE2" t="n">
-        <v>302542.5666215102</v>
+        <v>302542.5665744903</v>
       </c>
       <c r="PF2" t="n">
-        <v>373512.9912516291</v>
+        <v>373512.9911856891</v>
       </c>
       <c r="PG2" t="n">
-        <v>3806.836359202509</v>
+        <v>3806.836359519424</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2272327149218</v>
+        <v>716.2272327132133</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.716528036143</v>
+        <v>1004.716528032421</v>
       </c>
       <c r="PJ2" t="n">
-        <v>315.4189686647974</v>
+        <v>315.4189686226275</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9993203859029441</v>
+        <v>0.9993203859034723</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.589816726962215e-05</v>
+        <v>1.589816726615531e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02234742247454286</v>
+        <v>0.02234742246926963</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>269.9721837396797</v>
+        <v>269.9721829414328</v>
       </c>
       <c r="PQ2" t="n">
-        <v>92506.5496199834</v>
+        <v>92506.5485582103</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.194408012724049</v>
+        <v>1.194408002550249</v>
       </c>
       <c r="PS2" t="n">
-        <v>318666.3687018714</v>
+        <v>318666.36813149</v>
       </c>
       <c r="PT2" t="n">
-        <v>396116.0748613324</v>
+        <v>396116.0740617034</v>
       </c>
       <c r="PU2" t="n">
-        <v>3806.8363591869</v>
+        <v>3806.836359517765</v>
       </c>
       <c r="PV2" t="n">
-        <v>-631623.8501679666</v>
+        <v>-631623.8480181246</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.8246501709792</v>
+        <v>716.8246501450017</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.460590521886</v>
+        <v>1005.460590488837</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402659060736904</v>
+        <v>1.402659060741632</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9994119197945949</v>
+        <v>0.999411919791416</v>
       </c>
       <c r="QA2" t="n">
-        <v>329.5025907043932</v>
+        <v>329.5025902167592</v>
       </c>
       <c r="QB2" t="n">
-        <v>129679.2157334483</v>
+        <v>129679.2142450319</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.711335963470581e-06</v>
+        <v>7.711336051978821e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>92452.41367871662</v>
+        <v>92452.41261726586</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.081637525954835e-05</v>
+        <v>1.08163753837317e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003716489594754651</v>
+        <v>0.003716489605709869</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.705750708573956e-05</v>
+        <v>1.705750704540008e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0241137138128547</v>
+        <v>0.02411371375115364</v>
       </c>
       <c r="QI2" t="n">
-        <v>92506.5496199834</v>
+        <v>92506.5485582103</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.194408012724049</v>
+        <v>1.194408002550249</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.194408012724049</v>
+        <v>1.194408002550249</v>
       </c>
       <c r="QL2" t="n">
-        <v>318666.3687018714</v>
+        <v>318666.36813149</v>
       </c>
       <c r="QM2" t="n">
-        <v>396116.0748613324</v>
+        <v>396116.0740617034</v>
       </c>
       <c r="QN2" t="n">
-        <v>3806.8363591869</v>
+        <v>3806.836359517765</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.8246501709792</v>
+        <v>716.8246501450017</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.460590521886</v>
+        <v>1005.460590488837</v>
       </c>
       <c r="QQ2" t="n">
-        <v>329.5025907043932</v>
+        <v>329.5025902167592</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9994119197945949</v>
+        <v>0.999411919791416</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.705750708573956e-05</v>
+        <v>1.705750704540008e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0241137138128547</v>
+        <v>0.02411371375115364</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4315627352205331</v>
+        <v>0.4315627318496427</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8109494529298019</v>
+        <v>0.8109494416155151</v>
       </c>
       <c r="QY2" t="n">
-        <v>372027.3352593682</v>
+        <v>372027.3298982232</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.699358783995156</v>
+        <v>2.69935880166054</v>
       </c>
       <c r="RA2" t="n">
-        <v>382453.5008963124</v>
+        <v>382453.5000966775</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02701446568978635</v>
+        <v>0.02701446682765853</v>
       </c>
       <c r="RC2" t="n">
         <v>0</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01388396196231478</v>
+        <v>0.01388396192642372</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.07948208903984136</v>
+        <v>0.07948209097518157</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04125112740863206</v>
+        <v>0.0412511278207208</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1616316441005746</v>
+        <v>0.1616316475499846</v>
       </c>
       <c r="RH2" t="n">
-        <v>-2.908966401093949e-10</v>
+        <v>3.269457482524274e-10</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.43107424152207</v>
+        <v>79.43107433099451</v>
       </c>
       <c r="D3" t="n">
-        <v>79.43107424152207</v>
+        <v>79.43107433099451</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.43107424152207</v>
+        <v>79.43107433099451</v>
       </c>
       <c r="H3" t="n">
-        <v>79.43107424152207</v>
+        <v>79.43107433099451</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4545872450148</v>
+        <v>292.4545872381285</v>
       </c>
       <c r="L3" t="n">
-        <v>132934.6669305487</v>
+        <v>132934.6669196082</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584314364115056</v>
+        <v>1.584314364022049</v>
       </c>
       <c r="N3" t="n">
-        <v>334723.0347882054</v>
+        <v>334723.0347832793</v>
       </c>
       <c r="O3" t="n">
-        <v>418629.7833108078</v>
+        <v>418629.7833039019</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687701.7481981355</v>
+        <v>-687701.7481789909</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7175347742824</v>
+        <v>717.7175347739703</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653029400899</v>
+        <v>1006.653029400537</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575498893844</v>
+        <v>1.40257549889395</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986783122118</v>
+        <v>0.9994986783121637</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9681628787591</v>
+        <v>342.9681628747175</v>
       </c>
       <c r="W3" t="n">
-        <v>186358.40038381</v>
+        <v>186358.4003684777</v>
       </c>
       <c r="X3" t="n">
-        <v>5.36600441912183e-06</v>
+        <v>5.366004419563311e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132868.7122588292</v>
+        <v>132868.7122478876</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526226325216373e-06</v>
+        <v>7.526226325836152e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432262902446215</v>
+        <v>0.003432262902526904</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817640677259418e-05</v>
+        <v>1.817640677225728e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583200301755539</v>
+        <v>0.02583200301703645</v>
       </c>
       <c r="AD3" t="n">
-        <v>132934.6669305487</v>
+        <v>132934.6669196082</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584314364115056</v>
+        <v>1.584314364022049</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584314364115056</v>
+        <v>1.584314364022049</v>
       </c>
       <c r="AG3" t="n">
-        <v>334723.0347882054</v>
+        <v>334723.0347832793</v>
       </c>
       <c r="AH3" t="n">
-        <v>418629.7833108078</v>
+        <v>418629.7833039019</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7175347742824</v>
+        <v>717.7175347739703</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653029400899</v>
+        <v>1006.653029400537</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9681628787591</v>
+        <v>342.9681628747175</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986783122118</v>
+        <v>0.9994986783121637</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817640677259418e-05</v>
+        <v>1.817640677225728e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583200301755539</v>
+        <v>0.02583200301703645</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2315989728457721</v>
+        <v>0.2315989731093781</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2315989728457721</v>
+        <v>0.2315989731093781</v>
       </c>
       <c r="DH3" t="n">
-        <v>181117.9534389827</v>
+        <v>181117.9536357214</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.701669621348709</v>
+        <v>2.701669624233311</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>262.5129100373379</v>
+        <v>262.5129133559057</v>
       </c>
       <c r="DU3" t="n">
-        <v>108.2771576018613</v>
+        <v>108.2771586920982</v>
       </c>
       <c r="DV3" t="n">
-        <v>239.1423949824312</v>
+        <v>239.1423981316809</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.64027847443271</v>
+        <v>65.64027854117089</v>
       </c>
       <c r="DX3" t="n">
-        <v>262.5129100373379</v>
+        <v>262.5129133559057</v>
       </c>
       <c r="DY3" t="n">
-        <v>108.2771576018613</v>
+        <v>108.2771586920982</v>
       </c>
       <c r="DZ3" t="n">
-        <v>239.1423949824312</v>
+        <v>239.1423981316809</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.64027847443271</v>
+        <v>65.64027854117089</v>
       </c>
       <c r="EB3" t="n">
-        <v>261.2151831108518</v>
+        <v>261.2151822412537</v>
       </c>
       <c r="EC3" t="n">
-        <v>87088.65804063661</v>
+        <v>87088.65697936447</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.162237674519291</v>
+        <v>1.162237664229364</v>
       </c>
       <c r="EE3" t="n">
-        <v>312396.0336080023</v>
+        <v>312396.0329867318</v>
       </c>
       <c r="EF3" t="n">
-        <v>387327.9171202598</v>
+        <v>387327.916249274</v>
       </c>
       <c r="EG3" t="n">
-        <v>3791.05803550483</v>
+        <v>3791.058035666163</v>
       </c>
       <c r="EH3" t="n">
-        <v>-602954.0018080001</v>
+        <v>-602953.9994244321</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5795267696978</v>
+        <v>716.5795267454804</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.244489920841</v>
+        <v>1005.244489889732</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402837301886686</v>
+        <v>1.402837301890682</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993370812325777</v>
+        <v>0.9993370812290646</v>
       </c>
       <c r="EM3" t="n">
-        <v>324.1108395189851</v>
+        <v>324.1108389788083</v>
       </c>
       <c r="EN3" t="n">
-        <v>122090.5529672747</v>
+        <v>122090.5514793775</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.190641910419077e-06</v>
+        <v>8.190642010237061e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>87031.15664451904</v>
+        <v>87031.155583637</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.149013799833231e-05</v>
+        <v>1.149013813839343e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003841562698916419</v>
+        <v>0.003841562711672916</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.661296754170551e-05</v>
+        <v>1.66129674971845e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02343549248832058</v>
+        <v>0.02343549242042385</v>
       </c>
       <c r="EU3" t="n">
-        <v>87088.65804063661</v>
+        <v>87088.65697936447</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.162237674519291</v>
+        <v>1.162237664229364</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.162237674519291</v>
+        <v>1.162237664229364</v>
       </c>
       <c r="EX3" t="n">
-        <v>312396.0336080023</v>
+        <v>312396.0329867318</v>
       </c>
       <c r="EY3" t="n">
-        <v>387327.9171202598</v>
+        <v>387327.916249274</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3791.05803550483</v>
+        <v>3791.058035666163</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5795267696978</v>
+        <v>716.5795267454804</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.244489920841</v>
+        <v>1005.244489889732</v>
       </c>
       <c r="FC3" t="n">
-        <v>324.1108395189851</v>
+        <v>324.1108389788083</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993370812325777</v>
+        <v>0.9993370812290646</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.661296754170551e-05</v>
+        <v>1.66129674971845e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02343549248832058</v>
+        <v>0.02343549242042385</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5910489676053</v>
+        <v>295.5910489675151</v>
       </c>
       <c r="FJ3" t="n">
-        <v>134139.5092377021</v>
+        <v>134139.5091557314</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.581654219668273</v>
+        <v>1.581654218701787</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.8010381008</v>
+        <v>336974.8010382035</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FN3" t="n">
-        <v>3791.058035502886</v>
+        <v>3791.058035678556</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698818.3903228778</v>
+        <v>-698818.3903743619</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8531809317059</v>
+        <v>717.8531809314967</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.758198712959</v>
+        <v>1006.758198711617</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402456972338385</v>
+        <v>1.402456972336923</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995342034561264</v>
+        <v>0.9995342034564068</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8000420522801</v>
+        <v>344.8000420521433</v>
       </c>
       <c r="FU3" t="n">
-        <v>188038.2343466634</v>
+        <v>188038.2342316115</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.318067378554622e-06</v>
+        <v>5.318067381808502e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>134077.720782505</v>
+        <v>134077.7207006089</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.45836067441925e-06</v>
+        <v>7.458360678974899e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395544026641531</v>
+        <v>0.003395544026634963</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832896064261338e-05</v>
+        <v>1.832896064259717e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606672882651496</v>
+        <v>0.02606672882648195</v>
       </c>
       <c r="GB3" t="n">
-        <v>134139.5092377021</v>
+        <v>134139.5091557314</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.581654219668273</v>
+        <v>1.581654218701787</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.581654219668273</v>
+        <v>1.581654218701787</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.8010381008</v>
+        <v>336974.8010382035</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GG3" t="n">
-        <v>3791.058035502886</v>
+        <v>3791.058035678556</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8531809317059</v>
+        <v>717.8531809314967</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.758198712959</v>
+        <v>1006.758198711617</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8000420522801</v>
+        <v>344.8000420521433</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995342034561264</v>
+        <v>0.9995342034564068</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832896064261338e-05</v>
+        <v>1.832896064259717e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606672882651496</v>
+        <v>0.02606672882648195</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5910489676053</v>
+        <v>295.5910489675151</v>
       </c>
       <c r="GQ3" t="n">
-        <v>134139.5092377021</v>
+        <v>134139.5091557314</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.581654219668273</v>
+        <v>1.581654218701787</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.8010381008</v>
+        <v>336974.8010382035</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GU3" t="n">
-        <v>3791.058035502886</v>
+        <v>3791.058035678556</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698818.3903228778</v>
+        <v>-698818.3903743619</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8531809317059</v>
+        <v>717.8531809314967</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.758198712959</v>
+        <v>1006.758198711617</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402456972338385</v>
+        <v>1.402456972336923</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995342034561264</v>
+        <v>0.9995342034564068</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8000420522801</v>
+        <v>344.8000420521433</v>
       </c>
       <c r="HB3" t="n">
-        <v>188038.2343466634</v>
+        <v>188038.2342316115</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.318067378554622e-06</v>
+        <v>5.318067381808502e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>134077.720782505</v>
+        <v>134077.7207006089</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.45836067441925e-06</v>
+        <v>7.458360678974899e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395544026641531</v>
+        <v>0.003395544026634963</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832896064261338e-05</v>
+        <v>1.832896064259717e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606672882651496</v>
+        <v>0.02606672882648195</v>
       </c>
       <c r="HI3" t="n">
-        <v>134139.5092377021</v>
+        <v>134139.5091557314</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.581654219668273</v>
+        <v>1.581654218701787</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.581654219668273</v>
+        <v>1.581654218701787</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.8010381008</v>
+        <v>336974.8010382035</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HN3" t="n">
-        <v>3791.058035502886</v>
+        <v>3791.058035678556</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8531809317059</v>
+        <v>717.8531809314967</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.758198712959</v>
+        <v>1006.758198711617</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8000420522801</v>
+        <v>344.8000420521433</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995342034561264</v>
+        <v>0.9995342034564068</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832896064261338e-05</v>
+        <v>1.832896064259717e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606672882651496</v>
+        <v>0.02606672882648195</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,22 +5425,22 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8099479499881426</v>
+        <v>0.8099479615770266</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8099479499881426</v>
+        <v>0.8099479615770266</v>
       </c>
       <c r="HY3" t="n">
-        <v>480436.6594612499</v>
+        <v>480436.6625686607</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.701669620850926</v>
+        <v>2.701669624134531</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.0176236154465117</v>
+        <v>0.01762361551608376</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0491456447033736</v>
+        <v>0.04914564471990901</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.08204932868912844</v>
+        <v>0.08204932877523591</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.068646837687481e-10</v>
+        <v>1.803099336505909e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>262.5129100373379</v>
+        <v>262.5129133559057</v>
       </c>
       <c r="IL3" t="n">
-        <v>108.2771576018613</v>
+        <v>108.2771586920982</v>
       </c>
       <c r="IM3" t="n">
-        <v>239.1423949824312</v>
+        <v>239.1423981316809</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.64027847443271</v>
+        <v>65.64027854117089</v>
       </c>
       <c r="IO3" t="n">
-        <v>131.0578863479486</v>
+        <v>131.0578890229942</v>
       </c>
       <c r="IP3" t="n">
-        <v>108.2771576018613</v>
+        <v>108.2771586920982</v>
       </c>
       <c r="IQ3" t="n">
-        <v>73.83919498243117</v>
+        <v>73.83919813168094</v>
       </c>
       <c r="IR3" t="n">
-        <v>34.29188343111858</v>
+        <v>34.29188430005239</v>
       </c>
       <c r="IS3" t="n">
-        <v>261.2151831108516</v>
+        <v>261.2151822413604</v>
       </c>
       <c r="IT3" t="n">
-        <v>87088.65804055848</v>
+        <v>87088.65697947776</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.162237674518249</v>
+        <v>1.162237664230401</v>
       </c>
       <c r="IV3" t="n">
-        <v>312396.0336080024</v>
+        <v>312396.0329868079</v>
       </c>
       <c r="IW3" t="n">
-        <v>387327.9171202598</v>
+        <v>387327.9162493807</v>
       </c>
       <c r="IX3" t="n">
-        <v>3791.058035505087</v>
+        <v>3791.058035666199</v>
       </c>
       <c r="IY3" t="n">
-        <v>-602954.0018080667</v>
+        <v>-602953.9994247393</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5795267696976</v>
+        <v>716.5795267454833</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.24448992084</v>
+        <v>1005.244489889735</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402837301886684</v>
+        <v>1.402837301890681</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993370812325783</v>
+        <v>0.9993370812290652</v>
       </c>
       <c r="JD3" t="n">
-        <v>324.110839518985</v>
+        <v>324.1108389788745</v>
       </c>
       <c r="JE3" t="n">
-        <v>122090.5529671651</v>
+        <v>122090.5514795363</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.190641910426429e-06</v>
+        <v>8.190642010226409e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>87031.15664444104</v>
+        <v>87031.15558375024</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.149013799834261e-05</v>
+        <v>1.149013813837848e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.00384156269891641</v>
+        <v>0.003841562711671348</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.661296754170549e-05</v>
+        <v>1.661296749718996e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02343549248832053</v>
+        <v>0.02343549242043218</v>
       </c>
       <c r="JL3" t="n">
-        <v>87088.65804055848</v>
+        <v>87088.65697947776</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.162237674518249</v>
+        <v>1.162237664230401</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.162237674518249</v>
+        <v>1.162237664230401</v>
       </c>
       <c r="JO3" t="n">
-        <v>312396.0336080024</v>
+        <v>312396.0329868079</v>
       </c>
       <c r="JP3" t="n">
-        <v>387327.9171202598</v>
+        <v>387327.9162493807</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3791.058035505087</v>
+        <v>3791.058035666199</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5795267696976</v>
+        <v>716.5795267454833</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.24448992084</v>
+        <v>1005.244489889735</v>
       </c>
       <c r="JT3" t="n">
-        <v>324.110839518985</v>
+        <v>324.1108389788745</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993370812325783</v>
+        <v>0.9993370812290652</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.661296754170549e-05</v>
+        <v>1.661296749718996e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02343549248832053</v>
+        <v>0.02343549242043218</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5910489674972</v>
+        <v>295.5910489676228</v>
       </c>
       <c r="KA3" t="n">
-        <v>134139.5092340711</v>
+        <v>134139.5091592241</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.581654219626021</v>
+        <v>1.581654218742409</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.8010380307</v>
+        <v>336974.8010382738</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KE3" t="n">
-        <v>3791.058035510313</v>
+        <v>3791.058035671424</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698818.3903247635</v>
+        <v>-698818.3903725618</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8531809316921</v>
+        <v>717.85318093151</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.758198712897</v>
+        <v>1006.758198711676</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402456972338325</v>
+        <v>1.402456972336981</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995342034561375</v>
+        <v>0.9995342034563961</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8000420522134</v>
+        <v>344.8000420522096</v>
       </c>
       <c r="KL3" t="n">
-        <v>188038.2343415674</v>
+        <v>188038.2342365134</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.318067378698748e-06</v>
+        <v>5.318067381669868e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>134077.7207788771</v>
+        <v>134077.7207040985</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.458360674621059e-06</v>
+        <v>7.458360678780779e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.00339554402664245</v>
+        <v>0.003395544026634036</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832896064260761e-05</v>
+        <v>1.832896064260289e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606672882650573</v>
+        <v>0.0260667288264911</v>
       </c>
       <c r="KS3" t="n">
-        <v>134139.5092340711</v>
+        <v>134139.5091592241</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581654219626021</v>
+        <v>1.581654218742409</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.581654219626021</v>
+        <v>1.581654218742409</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.8010380307</v>
+        <v>336974.8010382738</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KX3" t="n">
-        <v>3791.058035510313</v>
+        <v>3791.058035671424</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8531809316921</v>
+        <v>717.85318093151</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.758198712897</v>
+        <v>1006.758198711676</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8000420522134</v>
+        <v>344.8000420522096</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995342034561375</v>
+        <v>0.9995342034563961</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832896064260761e-05</v>
+        <v>1.832896064260289e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606672882650573</v>
+        <v>0.0260667288264911</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>269.7870970933397</v>
+        <v>269.7870965738534</v>
       </c>
       <c r="LH3" t="n">
-        <v>97484.74000790864</v>
+        <v>97484.73929993332</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.259590688862011</v>
+        <v>1.259590682142639</v>
       </c>
       <c r="LJ3" t="n">
-        <v>318522.0191874692</v>
+        <v>318522.0188162868</v>
       </c>
       <c r="LK3" t="n">
-        <v>395916.0019073496</v>
+        <v>395916.0013869629</v>
       </c>
       <c r="LL3" t="n">
-        <v>3791.058035505087</v>
+        <v>3791.058035659584</v>
       </c>
       <c r="LM3" t="n">
-        <v>-626862.5404039471</v>
+        <v>-626862.5389966123</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8352535807152</v>
+        <v>716.8352535638895</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.559450774122</v>
+        <v>1005.559450752793</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402776224733898</v>
+        <v>1.402776224737069</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993780141832844</v>
+        <v>0.9993780141809737</v>
       </c>
       <c r="LR3" t="n">
-        <v>329.3922557589325</v>
+        <v>329.3922554414078</v>
       </c>
       <c r="LS3" t="n">
-        <v>136664.6553191612</v>
+        <v>136664.6543266326</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.317180858976596e-06</v>
+        <v>7.317180912117703e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>97424.41660293036</v>
+        <v>97424.41589516427</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.026436734105033e-05</v>
+        <v>1.026436741561861e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003719733427399106</v>
+        <v>0.003719733434541263</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.704894491042371e-05</v>
+        <v>1.704894488416228e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02410124999244049</v>
+        <v>0.02410124995227521</v>
       </c>
       <c r="LZ3" t="n">
-        <v>97484.74000790864</v>
+        <v>97484.73929993332</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.259590688862011</v>
+        <v>1.259590682142639</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.259590688862011</v>
+        <v>1.259590682142639</v>
       </c>
       <c r="MC3" t="n">
-        <v>318522.0191874692</v>
+        <v>318522.0188162868</v>
       </c>
       <c r="MD3" t="n">
-        <v>395916.0019073496</v>
+        <v>395916.0013869629</v>
       </c>
       <c r="ME3" t="n">
-        <v>3791.058035505087</v>
+        <v>3791.058035659584</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8352535807152</v>
+        <v>716.8352535638895</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.559450774122</v>
+        <v>1005.559450752793</v>
       </c>
       <c r="MH3" t="n">
-        <v>329.3922557589325</v>
+        <v>329.3922554414078</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993780141832844</v>
+        <v>0.9993780141809737</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.704894491042371e-05</v>
+        <v>1.704894488416228e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02410124999244049</v>
+        <v>0.02410124995227521</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.809947949988143</v>
+        <v>0.8099479615768611</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4043613183146003</v>
+        <v>0.4043613272419332</v>
       </c>
       <c r="MP3" t="n">
-        <v>238938.0436868119</v>
+        <v>238938.0470890464</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.701669620848504</v>
+        <v>2.70166962413694</v>
       </c>
       <c r="MR3" t="n">
-        <v>382253.4279422296</v>
+        <v>382253.4274217489</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>140.9419864273828</v>
+        <v>140.9419853101793</v>
       </c>
       <c r="MU3" t="n">
-        <v>126.2302383799414</v>
+        <v>126.2302385177929</v>
       </c>
       <c r="MV3" t="n">
-        <v>-62.69426175209111</v>
+        <v>-62.6942589629698</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.41202604570008</v>
+        <v>-26.41202500528943</v>
       </c>
       <c r="MX3" t="n">
-        <v>260.608740541934</v>
+        <v>260.6087381686002</v>
       </c>
       <c r="MY3" t="n">
-        <v>126.2302383799414</v>
+        <v>126.2302385177929</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-227.9974617520911</v>
+        <v>-227.9974589629698</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.02900061425257</v>
+        <v>-61.02900029072489</v>
       </c>
       <c r="NB3" t="n">
-        <v>235.8696637536652</v>
+        <v>235.8696638514171</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.9999683956</v>
+        <v>57500.0000067108</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8498616910001326</v>
+        <v>0.8498616912135463</v>
       </c>
       <c r="NE3" t="n">
-        <v>294299.4762156615</v>
+        <v>294299.4762856126</v>
       </c>
       <c r="NF3" t="n">
-        <v>361957.5440840091</v>
+        <v>361957.5441820542</v>
       </c>
       <c r="NG3" t="n">
-        <v>3807.976748268167</v>
+        <v>3807.976748492701</v>
       </c>
       <c r="NH3" t="n">
-        <v>-536228.6511117785</v>
+        <v>-536228.6514389314</v>
       </c>
       <c r="NI3" t="n">
-        <v>716.0083017007488</v>
+        <v>716.0083017021642</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.418583801589</v>
+        <v>1004.418583802557</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402802986244397</v>
+        <v>1.402802986242975</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992893832277152</v>
+        <v>0.9992893832285182</v>
       </c>
       <c r="NM3" t="n">
-        <v>307.9669022319836</v>
+        <v>307.9669022958909</v>
       </c>
       <c r="NN3" t="n">
-        <v>80603.9532145696</v>
+        <v>80603.95326826333</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240633939303171e-05</v>
+        <v>1.240633938476732e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57459.21131117891</v>
+        <v>57459.21134951319</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740364994890638e-05</v>
+        <v>1.740364993729543e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004252688981849548</v>
+        <v>0.004252688980080376</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.528932514982915e-05</v>
+        <v>1.528932515502647e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02142505496315631</v>
+        <v>0.02142505497100693</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.9999683956</v>
+        <v>57500.0000067108</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8498616910001326</v>
+        <v>0.8498616912135463</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8498616910001326</v>
+        <v>0.8498616912135463</v>
       </c>
       <c r="NX3" t="n">
-        <v>294299.4762156615</v>
+        <v>294299.4762856126</v>
       </c>
       <c r="NY3" t="n">
-        <v>361957.5440840091</v>
+        <v>361957.5441820542</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3807.976748268167</v>
+        <v>3807.976748492701</v>
       </c>
       <c r="OA3" t="n">
-        <v>716.0083017007488</v>
+        <v>716.0083017021642</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.418583801589</v>
+        <v>1004.418583802557</v>
       </c>
       <c r="OC3" t="n">
-        <v>307.9669022319836</v>
+        <v>307.9669022958909</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992893832277152</v>
+        <v>0.9992893832285182</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.528932514982915e-05</v>
+        <v>1.528932515502647e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02142505496315631</v>
+        <v>0.02142505497100693</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>245.7879687378977</v>
+        <v>245.7879686785982</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66392.36249690682</v>
+        <v>66392.36239369912</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9416676301288207</v>
+        <v>0.9416676288918981</v>
       </c>
       <c r="OL3" t="n">
-        <v>301384.7742763197</v>
+        <v>301384.7742340792</v>
       </c>
       <c r="OM3" t="n">
-        <v>371889.8658528713</v>
+        <v>371889.8657936415</v>
       </c>
       <c r="ON3" t="n">
-        <v>3807.976748286624</v>
+        <v>3807.976748491561</v>
       </c>
       <c r="OO3" t="n">
-        <v>-564065.0041096428</v>
+        <v>-564065.0039934326</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1922605918701</v>
+        <v>716.1922605904558</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.665486152184</v>
+        <v>1004.665486149376</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.4027874097968</v>
+        <v>1.402787409795648</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9993178167726235</v>
+        <v>0.9993178167729193</v>
       </c>
       <c r="OT3" t="n">
-        <v>314.3824840536003</v>
+        <v>314.382484015639</v>
       </c>
       <c r="OU3" t="n">
-        <v>93070.98797180809</v>
+        <v>93070.9878270788</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.074448678145447e-05</v>
+        <v>1.07444867981626e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66347.17942420785</v>
+        <v>66347.17932108969</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.507223078175248e-05</v>
+        <v>1.507223080517805e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004081408208739116</v>
+        <v>0.004081408209712744</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.581324606202612e-05</v>
+        <v>1.581324605891072e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02221851972619111</v>
+        <v>0.0222185197214579</v>
       </c>
       <c r="PB3" t="n">
-        <v>66392.36249690682</v>
+        <v>66392.36239369912</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9416676301288207</v>
+        <v>0.9416676288918981</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9416676301288207</v>
+        <v>0.9416676288918981</v>
       </c>
       <c r="PE3" t="n">
-        <v>301384.7742763197</v>
+        <v>301384.7742340792</v>
       </c>
       <c r="PF3" t="n">
-        <v>371889.8658528713</v>
+        <v>371889.8657936415</v>
       </c>
       <c r="PG3" t="n">
-        <v>3807.976748286624</v>
+        <v>3807.976748491561</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1922605918701</v>
+        <v>716.1922605904558</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.665486152184</v>
+        <v>1004.665486149376</v>
       </c>
       <c r="PJ3" t="n">
-        <v>314.3824840536003</v>
+        <v>314.382484015639</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9993178167726235</v>
+        <v>0.9993178167729193</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.581324606202612e-05</v>
+        <v>1.581324605891072e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02221851972619111</v>
+        <v>0.0222185197214579</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>269.7715081292812</v>
+        <v>269.77150760971</v>
       </c>
       <c r="PQ3" t="n">
-        <v>91901.75176420185</v>
+        <v>91901.75108049078</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.187480175045287</v>
+        <v>1.187480168500438</v>
       </c>
       <c r="PS3" t="n">
-        <v>318523.7610132412</v>
+        <v>318523.7606419761</v>
       </c>
       <c r="PT3" t="n">
-        <v>395916.0019074499</v>
+        <v>395916.0013869691</v>
       </c>
       <c r="PU3" t="n">
-        <v>3807.976748284982</v>
+        <v>3807.976748489918</v>
       </c>
       <c r="PV3" t="n">
-        <v>-631367.6283986263</v>
+        <v>-631367.6269958776</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.8170544769297</v>
+        <v>716.8170544600903</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.445398285645</v>
+        <v>1005.44539826428</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402652729878659</v>
+        <v>1.402652729881805</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9994132707887794</v>
+        <v>0.9994132707867054</v>
       </c>
       <c r="QA3" t="n">
-        <v>329.3798013540468</v>
+        <v>329.3798010365394</v>
       </c>
       <c r="QB3" t="n">
-        <v>128830.975248564</v>
+        <v>128830.9742901319</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.762108437591342e-06</v>
+        <v>7.762108495337192e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>91848.09076706316</v>
+        <v>91848.09008355753</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.088754258960167e-05</v>
+        <v>1.088754267062346e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003719200282003891</v>
+        <v>0.003719200289145576</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.704731315281015e-05</v>
+        <v>1.704731312654667e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.0240980813473179</v>
+        <v>0.02409808130714989</v>
       </c>
       <c r="QI3" t="n">
-        <v>91901.75176420185</v>
+        <v>91901.75108049078</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.187480175045287</v>
+        <v>1.187480168500438</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.187480175045287</v>
+        <v>1.187480168500438</v>
       </c>
       <c r="QL3" t="n">
-        <v>318523.7610132412</v>
+        <v>318523.7606419761</v>
       </c>
       <c r="QM3" t="n">
-        <v>395916.0019074499</v>
+        <v>395916.0013869691</v>
       </c>
       <c r="QN3" t="n">
-        <v>3807.976748284982</v>
+        <v>3807.976748489918</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.8170544769297</v>
+        <v>716.8170544600903</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.445398285645</v>
+        <v>1005.44539826428</v>
       </c>
       <c r="QQ3" t="n">
-        <v>329.3798013540468</v>
+        <v>329.3798010365394</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9994132707887794</v>
+        <v>0.9994132707867054</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.704731315281015e-05</v>
+        <v>1.704731312654667e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.0240980813473179</v>
+        <v>0.02409808130714989</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4576530315625113</v>
+        <v>0.4576530278398682</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8462232098747552</v>
+        <v>0.8462232019926949</v>
       </c>
       <c r="QY3" t="n">
-        <v>377505.5363542997</v>
+        <v>377505.5328828717</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.701669620600207</v>
+        <v>2.701669624229033</v>
       </c>
       <c r="RA3" t="n">
-        <v>382253.4279422296</v>
+        <v>382253.4274217489</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02714521500432326</v>
+        <v>0.02714521566672633</v>
       </c>
       <c r="RC3" t="n">
         <v>0</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01389203144723639</v>
+        <v>0.01389203142980033</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.07971792740350001</v>
+        <v>0.07971792863782824</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04153273173988279</v>
+        <v>0.04153273211474071</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1622879055949424</v>
+        <v>0.1622879078490956</v>
       </c>
       <c r="RH3" t="n">
-        <v>-1.17193449389319e-10</v>
+        <v>3.294429173905655e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760661580392565</v>
+        <v>0.01760661579677169</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8698,25 +8698,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0491414872258233</v>
+        <v>0.04914148722588343</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202817156899209</v>
+        <v>0.08202817156189826</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.633188360221197e-12</v>
+        <v>7.596134832255075e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350546908</v>
+        <v>80.71248350521492</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350546908</v>
+        <v>80.71248350521492</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350546908</v>
+        <v>80.71248350521492</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350546908</v>
+        <v>80.71248350521492</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750147775</v>
+        <v>292.352275014698</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796844931</v>
+        <v>132772.1796843667</v>
       </c>
       <c r="T2" t="n">
-        <v>1.582932747003396</v>
+        <v>1.582932747002322</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439825347</v>
+        <v>334649.8439824779</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785918795</v>
+        <v>418527.1785917997</v>
       </c>
       <c r="W2" t="n">
         <v>3782.91734772346</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3142079426</v>
+        <v>-687417.3142077212</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517532</v>
+        <v>717.7129007517497</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845957</v>
+        <v>1006.647652845953</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602404</v>
+        <v>1.402577063602405</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405119</v>
+        <v>0.9994979633405113</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.908110079616</v>
+        <v>342.9081100795693</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6856011333</v>
+        <v>186130.6856009564</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261056389e-06</v>
+        <v>5.372569261061497e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094706383</v>
+        <v>132706.209470512</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418173003e-06</v>
+        <v>7.535442418180176e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124704947</v>
+        <v>0.003433462124705881</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.81714010349944e-05</v>
+        <v>1.817140103499051e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250875182</v>
+        <v>0.02582429250874583</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796844931</v>
+        <v>132772.1796843667</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.582932747003396</v>
+        <v>1.582932747002322</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.582932747003396</v>
+        <v>1.582932747002322</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439825347</v>
+        <v>334649.8439824779</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785918795</v>
+        <v>418527.1785917997</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.91734772346</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517532</v>
+        <v>717.7129007517497</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845957</v>
+        <v>1006.647652845953</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.908110079616</v>
+        <v>342.9081100795693</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405119</v>
+        <v>0.9994979633405113</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.81714010349944e-05</v>
+        <v>1.817140103499051e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250875182</v>
+        <v>0.02582429250874583</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2353764204839872</v>
+        <v>0.2353764204832781</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2353764204839872</v>
+        <v>0.2353764204832781</v>
       </c>
       <c r="DO2" t="n">
-        <v>183929.9703381685</v>
+        <v>183929.9703375039</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.742859853979951</v>
+        <v>2.742859853969453</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>306.8418872212519</v>
+        <v>306.841895877694</v>
       </c>
       <c r="DT2" t="n">
-        <v>125.3773398268744</v>
+        <v>125.3773433639459</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.0579697338319</v>
+        <v>280.0579776346619</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>306.8418872212519</v>
+        <v>306.8418958776939</v>
       </c>
       <c r="DX2" t="n">
-        <v>125.3773398268744</v>
+        <v>125.3773433639459</v>
       </c>
       <c r="DY2" t="n">
-        <v>280.0579697338319</v>
+        <v>280.0579776346619</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>248.6139891625878</v>
+        <v>248.6139865099731</v>
       </c>
       <c r="EB2" t="n">
-        <v>72670.28912505995</v>
+        <v>72670.28630215376</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.019019576529345</v>
+        <v>1.019019547826113</v>
       </c>
       <c r="ED2" t="n">
-        <v>303394.5308058087</v>
+        <v>303394.5289111326</v>
       </c>
       <c r="EE2" t="n">
-        <v>374708.4592119399</v>
+        <v>374708.456555781</v>
       </c>
       <c r="EF2" t="n">
-        <v>3793.461869347782</v>
+        <v>3793.461869806563</v>
       </c>
       <c r="EG2" t="n">
-        <v>-568399.2288627796</v>
+        <v>-568399.2215704052</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2663343318485</v>
+        <v>716.2663342735867</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.832375599852</v>
+        <v>1004.832375521299</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402875337617515</v>
+        <v>1.402875337621956</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992923632792198</v>
+        <v>0.9992923632709382</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.1865758314901</v>
+        <v>316.186574142555</v>
       </c>
       <c r="EM2" t="n">
-        <v>101875.4129430078</v>
+        <v>101875.4089850815</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.815911132153449e-06</v>
+        <v>9.815911513508019e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72619.00627323132</v>
+        <v>72619.00345170562</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.377049964354329e-05</v>
+        <v>1.377050017857981e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004035765677907942</v>
+        <v>0.004035765720859821</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.596159561479168e-05</v>
+        <v>1.596159547634417e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02244419798818279</v>
+        <v>0.02244419777792959</v>
       </c>
       <c r="ET2" t="n">
-        <v>72670.28912505995</v>
+        <v>72670.28630215376</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.019019576529345</v>
+        <v>1.019019547826113</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.019019576529345</v>
+        <v>1.019019547826113</v>
       </c>
       <c r="EW2" t="n">
-        <v>303394.5308058087</v>
+        <v>303394.5289111326</v>
       </c>
       <c r="EX2" t="n">
-        <v>374708.4592119399</v>
+        <v>374708.456555781</v>
       </c>
       <c r="EY2" t="n">
-        <v>3793.461869347782</v>
+        <v>3793.461869806563</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2663343318485</v>
+        <v>716.2663342735867</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.832375599852</v>
+        <v>1004.832375521299</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.1865758314901</v>
+        <v>316.186574142555</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992923632792198</v>
+        <v>0.9992923632709382</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.596159561479168e-05</v>
+        <v>1.596159547634417e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02244419798818279</v>
+        <v>0.02244419777792959</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.588453739472</v>
+        <v>295.5884537387785</v>
       </c>
       <c r="FI2" t="n">
-        <v>133020.3589465019</v>
+        <v>133020.3587334874</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.56846598137879</v>
+        <v>1.568465978869644</v>
       </c>
       <c r="FK2" t="n">
-        <v>336975.222265705</v>
+        <v>336975.2222656417</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FM2" t="n">
-        <v>3793.461869355213</v>
+        <v>3793.461869813994</v>
       </c>
       <c r="FN2" t="n">
-        <v>-699519.0971936645</v>
+        <v>-699519.0973268449</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8502656719343</v>
+        <v>717.8502656713706</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.739822664039</v>
+        <v>1006.739822660535</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402437069131253</v>
+        <v>1.402437069127474</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.999538014765927</v>
+        <v>0.9995380147666501</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.7973817657283</v>
+        <v>344.7973817651059</v>
       </c>
       <c r="FT2" t="n">
-        <v>186467.4459583594</v>
+        <v>186467.4456593858</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.3628663966541e-06</v>
+        <v>5.362866405252682e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>132959.58161878</v>
+        <v>132959.5814059567</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.52108263146606e-06</v>
+        <v>7.521082643504764e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395470178527926</v>
+        <v>0.003395470178516187</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832867335240875e-05</v>
+        <v>1.83286733523444e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606617654995584</v>
+        <v>0.02606617654983585</v>
       </c>
       <c r="GA2" t="n">
-        <v>133020.3589465019</v>
+        <v>133020.3587334874</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.56846598137879</v>
+        <v>1.568465978869644</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.56846598137879</v>
+        <v>1.568465978869644</v>
       </c>
       <c r="GD2" t="n">
-        <v>336975.222265705</v>
+        <v>336975.2222656417</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GF2" t="n">
-        <v>3793.461869355213</v>
+        <v>3793.461869813994</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8502656719343</v>
+        <v>717.8502656713706</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.739822664039</v>
+        <v>1006.739822660535</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.7973817657283</v>
+        <v>344.7973817651059</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.999538014765927</v>
+        <v>0.9995380147666501</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832867335240875e-05</v>
+        <v>1.83286733523444e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606617654995584</v>
+        <v>0.02606617654983585</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.588453739472</v>
+        <v>295.5884537388786</v>
       </c>
       <c r="GP2" t="n">
-        <v>133020.3589465019</v>
+        <v>133020.3587336449</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.56846598137879</v>
+        <v>1.568465978870969</v>
       </c>
       <c r="GR2" t="n">
-        <v>336975.222265705</v>
+        <v>336975.2222657134</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GT2" t="n">
-        <v>3793.461869355213</v>
+        <v>3793.461869813993</v>
       </c>
       <c r="GU2" t="n">
-        <v>-699519.0971936645</v>
+        <v>-699519.0973271239</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8502656719343</v>
+        <v>717.8502656713755</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.739822664039</v>
+        <v>1006.739822660541</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402437069131253</v>
+        <v>1.402437069127472</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.999538014765927</v>
+        <v>0.9995380147666507</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.7973817657283</v>
+        <v>344.7973817651642</v>
       </c>
       <c r="HA2" t="n">
-        <v>186467.4459583594</v>
+        <v>186467.4456596064</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.3628663966541e-06</v>
+        <v>5.362866405246337e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>132959.58161878</v>
+        <v>132959.5814061143</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.52108263146606e-06</v>
+        <v>7.521082643495852e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395470178527926</v>
+        <v>0.003395470178515039</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832867335240875e-05</v>
+        <v>1.832867335234927e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606617654995584</v>
+        <v>0.02606617654984337</v>
       </c>
       <c r="HH2" t="n">
-        <v>133020.3589465019</v>
+        <v>133020.3587336449</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.56846598137879</v>
+        <v>1.568465978870969</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.56846598137879</v>
+        <v>1.568465978870969</v>
       </c>
       <c r="HK2" t="n">
-        <v>336975.222265705</v>
+        <v>336975.2222657134</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="HM2" t="n">
-        <v>3793.461869355213</v>
+        <v>3793.461869813993</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8502656719343</v>
+        <v>717.8502656713755</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.739822664039</v>
+        <v>1006.739822660541</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.7973817657283</v>
+        <v>344.7973817651642</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.999538014765927</v>
+        <v>0.9995380147666507</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832867335240875e-05</v>
+        <v>1.832867335234927e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606617654995584</v>
+        <v>0.02606617654984337</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01795407855730839</v>
+        <v>0.01795407858410233</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -9394,196 +9394,196 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.04927004794846658</v>
+        <v>0.04927004797131252</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.0825041950450181</v>
+        <v>0.08250419509465798</v>
       </c>
       <c r="IB2" t="n">
-        <v>8.402923102390769e-06</v>
+        <v>8.402790331415999e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9704456503706267</v>
+        <v>0.970445682931977</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9704456503706267</v>
+        <v>0.9704456829319767</v>
       </c>
       <c r="IE2" t="n">
-        <v>512458.390703471</v>
+        <v>512458.3951709291</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.742849774633815</v>
+        <v>2.742849774754255</v>
       </c>
       <c r="IG2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="IH2" t="n">
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>2102.618766320287</v>
+        <v>2102.61882827722</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006917638198519097</v>
+        <v>0.006917638402764667</v>
       </c>
       <c r="IL2" t="n">
         <v>0</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01930768711892936</v>
+        <v>0.01930768769686402</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.006003537930298358</v>
+        <v>0.006003538109994186</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02701446568978635</v>
+        <v>0.02701446682765853</v>
       </c>
       <c r="IQ2" t="n">
         <v>0</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01388396196231478</v>
+        <v>0.01388396192642372</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.07948208903984136</v>
+        <v>0.07948209097518157</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04125112740863206</v>
+        <v>0.0412511278207208</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1616316441005746</v>
+        <v>0.1616316475499846</v>
       </c>
       <c r="IV2" t="n">
-        <v>-2.908966401093949e-10</v>
+        <v>3.269457482524274e-10</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>263.9934648519463</v>
+        <v>263.9934648082257</v>
       </c>
       <c r="IY2" t="n">
-        <v>108.9555783792096</v>
+        <v>108.9555784013568</v>
       </c>
       <c r="IZ2" t="n">
-        <v>240.460457091364</v>
+        <v>240.4604570333295</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.62413753883365</v>
+        <v>65.62413752925698</v>
       </c>
       <c r="JB2" t="n">
-        <v>132.3628775504879</v>
+        <v>132.3628775357659</v>
       </c>
       <c r="JC2" t="n">
-        <v>108.9555783792096</v>
+        <v>108.9555784013568</v>
       </c>
       <c r="JD2" t="n">
-        <v>75.15725709136399</v>
+        <v>75.1572570333295</v>
       </c>
       <c r="JE2" t="n">
-        <v>34.59780448866137</v>
+        <v>34.59780446253902</v>
       </c>
       <c r="JF2" t="n">
-        <v>260.8261691147943</v>
+        <v>260.8261691260627</v>
       </c>
       <c r="JG2" t="n">
-        <v>86657.47172619087</v>
+        <v>86657.47165240139</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.158210347807143</v>
+        <v>1.158210346770053</v>
       </c>
       <c r="JI2" t="n">
-        <v>312118.0065434357</v>
+        <v>312118.0065516985</v>
       </c>
       <c r="JJ2" t="n">
-        <v>386938.1563463284</v>
+        <v>386938.156357877</v>
       </c>
       <c r="JK2" t="n">
-        <v>3790.988615743229</v>
+        <v>3790.988616031769</v>
       </c>
       <c r="JL2" t="n">
-        <v>-601850.8814557752</v>
+        <v>-601850.8815622036</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.56887937238</v>
+        <v>716.5688793723863</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.231555306536</v>
+        <v>1005.231555304999</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402840095689037</v>
+        <v>1.402840095686881</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993351898581443</v>
+        <v>0.9993351898588581</v>
       </c>
       <c r="JQ2" t="n">
-        <v>323.869115063493</v>
+        <v>323.8691150704707</v>
       </c>
       <c r="JR2" t="n">
-        <v>121486.0775100328</v>
+        <v>121486.0774064861</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.231395897339888e-06</v>
+        <v>8.231395904355792e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>86600.08926417389</v>
+        <v>86600.08919049475</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.154733220827864e-05</v>
+        <v>1.154733221810308e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003847284349280629</v>
+        <v>0.003847284349101397</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659305184794647e-05</v>
+        <v>1.659305184851021e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02340512759874441</v>
+        <v>0.02340512759959259</v>
       </c>
       <c r="JY2" t="n">
-        <v>86657.47172619087</v>
+        <v>86657.47165240139</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.158210347807143</v>
+        <v>1.158210346770053</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.158210347807143</v>
+        <v>1.158210346770053</v>
       </c>
       <c r="KB2" t="n">
-        <v>312118.0065434357</v>
+        <v>312118.0065516985</v>
       </c>
       <c r="KC2" t="n">
-        <v>386938.1563463284</v>
+        <v>386938.156357877</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.988615743229</v>
+        <v>3790.988616031769</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.56887937238</v>
+        <v>716.5688793723863</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.231555306536</v>
+        <v>1005.231555304999</v>
       </c>
       <c r="KG2" t="n">
-        <v>323.869115063493</v>
+        <v>323.8691150704707</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993351898581443</v>
+        <v>0.9993351898588581</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.659305184794647e-05</v>
+        <v>1.659305184851021e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02340512759874441</v>
+        <v>0.02340512759959259</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5911242362811</v>
+        <v>295.5911242359762</v>
       </c>
       <c r="KN2" t="n">
-        <v>134171.9684866467</v>
+        <v>134171.9683550792</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.582036722452483</v>
+        <v>1.582036720902079</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.7888204032</v>
+        <v>336974.7888204528</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310887903</v>
+        <v>421784.4310887905</v>
       </c>
       <c r="KR2" t="n">
-        <v>3790.988615748455</v>
+        <v>3790.988616029801</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698798.1558072385</v>
+        <v>-698798.1558892459</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8532654823707</v>
+        <v>717.8532654820282</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.758731674402</v>
+        <v>1006.758731672242</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402457549591138</v>
+        <v>1.402457549588798</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995340929335994</v>
+        <v>0.9995340929340474</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8001192153174</v>
+        <v>344.8001192150047</v>
       </c>
       <c r="KY2" t="n">
-        <v>188083.7931643354</v>
+        <v>188083.7929796712</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.316779203438678e-06</v>
+        <v>5.316779208658791e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>134110.1505847132</v>
+        <v>134110.1504532651</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.456557133371731e-06</v>
+        <v>7.456557140680277e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395546168356296</v>
+        <v>0.003395546168347612</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832896897522672e-05</v>
+        <v>1.832896897519296e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.0260667448450641</v>
+        <v>0.02606674484499919</v>
       </c>
       <c r="LF2" t="n">
-        <v>134171.9684866467</v>
+        <v>134171.9683550792</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.582036722452483</v>
+        <v>1.582036720902079</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.582036722452483</v>
+        <v>1.582036720902079</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.7888204032</v>
+        <v>336974.7888204528</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310887903</v>
+        <v>421784.4310887905</v>
       </c>
       <c r="LK2" t="n">
-        <v>3790.988615748455</v>
+        <v>3790.988616029801</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8532654823707</v>
+        <v>717.8532654820282</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.758731674402</v>
+        <v>1006.758731672242</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8001192153174</v>
+        <v>344.8001192150047</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995340929335994</v>
+        <v>0.9995340929340474</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832896897522672e-05</v>
+        <v>1.832896897519296e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.0260667448450641</v>
+        <v>0.02606674484499919</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>269.5697206566284</v>
+        <v>269.569720666136</v>
       </c>
       <c r="LU2" t="n">
-        <v>97234.1028223313</v>
+        <v>97234.10273928382</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.257366908871431</v>
+        <v>1.257366907752345</v>
       </c>
       <c r="LW2" t="n">
-        <v>318366.5952138929</v>
+        <v>318366.5952209089</v>
       </c>
       <c r="LX2" t="n">
-        <v>395698.1220230447</v>
+        <v>395698.1220328386</v>
       </c>
       <c r="LY2" t="n">
-        <v>3790.988615743229</v>
+        <v>3790.988616024575</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-626237.620135316</v>
+        <v>-626237.6202374079</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.8283699366293</v>
+        <v>716.8283699366301</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.551463577906</v>
+        <v>1005.551463576334</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.40277855306815</v>
+        <v>1.402778553065956</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993767605623137</v>
+        <v>0.999376760562968</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2593860107768</v>
+        <v>329.2593860165404</v>
       </c>
       <c r="MF2" t="n">
-        <v>136313.3385285508</v>
+        <v>136313.3384120011</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.336039237206051e-06</v>
+        <v>7.336039243478463e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>97173.81138341966</v>
+        <v>97173.81130048672</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.029083850641908e-05</v>
+        <v>1.029083851520179e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003722730536103466</v>
+        <v>0.003722730535959602</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.703796106386539e-05</v>
+        <v>1.703796106433161e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02408445694515479</v>
+        <v>0.02408445694585615</v>
       </c>
       <c r="MM2" t="n">
-        <v>97234.1028223313</v>
+        <v>97234.10273928382</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.257366908871431</v>
+        <v>1.257366907752345</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.257366908871431</v>
+        <v>1.257366907752345</v>
       </c>
       <c r="MP2" t="n">
-        <v>318366.5952138929</v>
+        <v>318366.5952209089</v>
       </c>
       <c r="MQ2" t="n">
-        <v>395698.1220230447</v>
+        <v>395698.1220328386</v>
       </c>
       <c r="MR2" t="n">
-        <v>3790.988615743229</v>
+        <v>3790.988616024575</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.8283699366293</v>
+        <v>716.8283699366301</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.551463577906</v>
+        <v>1005.551463576334</v>
       </c>
       <c r="MU2" t="n">
-        <v>329.2593860107768</v>
+        <v>329.2593860165404</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993767605623137</v>
+        <v>0.999376760562968</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.703796106386539e-05</v>
+        <v>1.703796106433161e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02408445694515479</v>
+        <v>0.02408445694585615</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8151239268375176</v>
+        <v>0.8151239266849616</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4086924976607874</v>
+        <v>0.4086924976065256</v>
       </c>
       <c r="NC2" t="n">
-        <v>240769.6724769906</v>
+        <v>240769.6722264401</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.709176843204896</v>
+        <v>2.709176841329724</v>
       </c>
       <c r="NE2" t="n">
-        <v>382035.548058025</v>
+        <v>382035.5480676183</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>162.4251350595683</v>
+        <v>162.4251734120221</v>
       </c>
       <c r="NH2" t="n">
-        <v>138.1172919115806</v>
+        <v>138.1173131500733</v>
       </c>
       <c r="NI2" t="n">
-        <v>-85.47244102124517</v>
+        <v>-85.47247958337266</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-31.75086011405704</v>
+        <v>-31.75086773872628</v>
       </c>
       <c r="NK2" t="n">
-        <v>286.2949675677258</v>
+        <v>286.2950115917108</v>
       </c>
       <c r="NL2" t="n">
-        <v>138.1172919115806</v>
+        <v>138.1173131500733</v>
       </c>
       <c r="NM2" t="n">
-        <v>-250.7756410212452</v>
+        <v>-250.7756795833727</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO2" t="n">
-        <v>228.6352351904528</v>
+        <v>228.635222608718</v>
       </c>
       <c r="NP2" t="n">
-        <v>51079.99983318527</v>
+        <v>51079.98912011507</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7788691511217321</v>
+        <v>0.7788690306400264</v>
       </c>
       <c r="NR2" t="n">
-        <v>289133.4569504904</v>
+        <v>289133.447966297</v>
       </c>
       <c r="NS2" t="n">
-        <v>354715.7177957422</v>
+        <v>354715.7052016895</v>
       </c>
       <c r="NT2" t="n">
-        <v>3810.753361900491</v>
+        <v>3810.753366976679</v>
       </c>
       <c r="NU2" t="n">
-        <v>-516556.7733551853</v>
+        <v>-516556.739163945</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.894854081792</v>
+        <v>715.8948539001266</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.247084023193</v>
+        <v>1004.247083740712</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402785727956156</v>
+        <v>1.402785727917543</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992795353173024</v>
+        <v>0.999279535303814</v>
       </c>
       <c r="NZ2" t="n">
-        <v>303.2023559222413</v>
+        <v>303.2023475713381</v>
       </c>
       <c r="OA2" t="n">
-        <v>71602.74071234684</v>
+        <v>71602.72569204881</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.396594585697981e-05</v>
+        <v>1.396594878665416e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>51043.24864829588</v>
+        <v>51043.23794222242</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.959122952557969e-05</v>
+        <v>1.959123363474578e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004386853937945808</v>
+        <v>0.004386854178646487</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.49018008175113e-05</v>
+        <v>1.490180013958183e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02083979151755358</v>
+        <v>0.02083979049497872</v>
       </c>
       <c r="OH2" t="n">
-        <v>51079.99983318527</v>
+        <v>51079.98912011507</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7788691511217321</v>
+        <v>0.7788690306400264</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7788691511217321</v>
+        <v>0.7788690306400264</v>
       </c>
       <c r="OK2" t="n">
-        <v>289133.4569504904</v>
+        <v>289133.447966297</v>
       </c>
       <c r="OL2" t="n">
-        <v>354715.7177957422</v>
+        <v>354715.7052016895</v>
       </c>
       <c r="OM2" t="n">
-        <v>3810.753361900491</v>
+        <v>3810.753366976679</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.894854081792</v>
+        <v>715.8948539001266</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.247084023193</v>
+        <v>1004.247083740712</v>
       </c>
       <c r="OP2" t="n">
-        <v>303.2023559222413</v>
+        <v>303.2023475713381</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992795353173024</v>
+        <v>0.999279535303814</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.49018008175113e-05</v>
+        <v>1.490180013958183e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02083979151755358</v>
+        <v>0.02083979049497872</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>241.8085212463817</v>
+        <v>241.8085148870094</v>
       </c>
       <c r="OW2" t="n">
-        <v>62112.35549369824</v>
+        <v>62112.34869513078</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.8954656524192331</v>
+        <v>0.8954655779608933</v>
       </c>
       <c r="OY2" t="n">
-        <v>298543.4885863187</v>
+        <v>298543.4840462061</v>
       </c>
       <c r="OZ2" t="n">
-        <v>367906.6800453016</v>
+        <v>367906.6736805521</v>
       </c>
       <c r="PA2" t="n">
-        <v>3810.753361893026</v>
+        <v>3810.753366969215</v>
       </c>
       <c r="PB2" t="n">
-        <v>-553565.9552287287</v>
+        <v>-553565.9385869442</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.1111451603865</v>
+        <v>716.1111450353643</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.545565215186</v>
+        <v>1004.545565025657</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402778845161248</v>
+        <v>1.402778845141488</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9993123068930552</v>
+        <v>0.9993123068867189</v>
       </c>
       <c r="PG2" t="n">
-        <v>311.8243815808315</v>
+        <v>311.8243774762445</v>
       </c>
       <c r="PH2" t="n">
-        <v>87070.10568322281</v>
+        <v>87070.09615107627</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.148499811908103e-05</v>
+        <v>1.148499937642068e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62069.7310795375</v>
+        <v>62069.72428522341</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.611091239816358e-05</v>
+        <v>1.611091416170612e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004148320247404387</v>
+        <v>0.004148320356064975</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.560393133127321e-05</v>
+        <v>1.560393099571133e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02190110387144883</v>
+        <v>0.02190110336291063</v>
       </c>
       <c r="PO2" t="n">
-        <v>62112.35549369824</v>
+        <v>62112.34869513078</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.8954656524192331</v>
+        <v>0.8954655779608933</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.8954656524192331</v>
+        <v>0.8954655779608933</v>
       </c>
       <c r="PR2" t="n">
-        <v>298543.4885863187</v>
+        <v>298543.4840462061</v>
       </c>
       <c r="PS2" t="n">
-        <v>367906.6800453016</v>
+        <v>367906.6736805521</v>
       </c>
       <c r="PT2" t="n">
-        <v>3810.753361893026</v>
+        <v>3810.753366969215</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.1111451603865</v>
+        <v>716.1111450353643</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.545565215186</v>
+        <v>1004.545565025657</v>
       </c>
       <c r="PW2" t="n">
-        <v>311.8243815808315</v>
+        <v>311.8243774762445</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9993123068930552</v>
+        <v>0.9993123068867189</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.560393133127321e-05</v>
+        <v>1.560393099571133e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02190110387144883</v>
+        <v>0.02190110336291063</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>269.5516159186231</v>
+        <v>269.5516159236915</v>
       </c>
       <c r="QD2" t="n">
-        <v>90760.58166387728</v>
+        <v>90760.58006917311</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.173686219645543</v>
+        <v>1.173686198989252</v>
       </c>
       <c r="QF2" t="n">
-        <v>318368.6108262236</v>
+        <v>318368.6108335578</v>
       </c>
       <c r="QG2" t="n">
-        <v>395698.1220232515</v>
+        <v>395698.1220328321</v>
       </c>
       <c r="QH2" t="n">
-        <v>3810.753361889819</v>
+        <v>3810.753366966007</v>
       </c>
       <c r="QI2" t="n">
-        <v>-631496.6045414746</v>
+        <v>-631496.6059195034</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.8072235474558</v>
+        <v>716.8072235425136</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.418959924742</v>
+        <v>1005.418959892235</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402635083598845</v>
+        <v>1.402635083563166</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9994178347646471</v>
+        <v>0.9994178347748893</v>
       </c>
       <c r="QN2" t="n">
-        <v>329.2449558732148</v>
+        <v>329.2449558754809</v>
       </c>
       <c r="QO2" t="n">
-        <v>127230.2164027845</v>
+        <v>127230.2141653476</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.859768129562928e-06</v>
+        <v>7.859768267782732e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>90707.99518028623</v>
+        <v>90707.99358742683</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.102438652747704e-05</v>
+        <v>1.102438672106856e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003722110332933522</v>
+        <v>0.003722110332647822</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.703606690138349e-05</v>
+        <v>1.703606690139689e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02408077844283209</v>
+        <v>0.0240807784426586</v>
       </c>
       <c r="QV2" t="n">
-        <v>90760.58166387728</v>
+        <v>90760.58006917311</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.173686219645543</v>
+        <v>1.173686198989252</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.173686219645543</v>
+        <v>1.173686198989252</v>
       </c>
       <c r="QY2" t="n">
-        <v>318368.6108262236</v>
+        <v>318368.6108335578</v>
       </c>
       <c r="QZ2" t="n">
-        <v>395698.1220232515</v>
+        <v>395698.1220328321</v>
       </c>
       <c r="RA2" t="n">
-        <v>3810.753361889819</v>
+        <v>3810.753366966007</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.8072235474558</v>
+        <v>716.8072235425136</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.418959924742</v>
+        <v>1005.418959892235</v>
       </c>
       <c r="RD2" t="n">
-        <v>329.2449558732148</v>
+        <v>329.2449558754809</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9994178347646471</v>
+        <v>0.9994178347748893</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.703606690138349e-05</v>
+        <v>1.703606690139689e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02408077844283209</v>
+        <v>0.0240807784426586</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02720806907182439</v>
+        <v>0.02720806879007444</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
@@ -10150,55 +10150,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.08021887368573652</v>
+        <v>0.0802188743958565</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04179126272245447</v>
+        <v>0.04179126270601809</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.163117047708592</v>
+        <v>0.1631170481205257</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.373450259282595e-05</v>
+        <v>2.373463604593562e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5356987895609343</v>
+        <v>0.5356989308066171</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9442372790835057</v>
+        <v>0.9442374502867286</v>
       </c>
       <c r="RS2" t="n">
-        <v>389954.4442729596</v>
+        <v>389954.461655777</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.709150558997484</v>
+        <v>2.709150556514298</v>
       </c>
       <c r="RU2" t="n">
-        <v>382035.548058025</v>
+        <v>382035.5480676183</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>3749.900719868368</v>
+        <v>3749.900729327463</v>
       </c>
       <c r="RX2" t="n">
-        <v>4.367164492592202</v>
+        <v>4.367165709319956</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.009606699648954832</v>
+        <v>0.009606699876448951</v>
       </c>
       <c r="RZ2" t="n">
         <v>0</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.02826487725670356</v>
+        <v>0.02826487742372972</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.014669443984055</v>
+        <v>0.01466944386009363</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004937319658330305</v>
+        <v>0.004937319554522455</v>
       </c>
     </row>
     <row r="3">
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0176236154465117</v>
+        <v>0.01762361551608376</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10215,25 +10215,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0491456447033736</v>
+        <v>0.04914564471990901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204932868912844</v>
+        <v>0.08204932877523591</v>
       </c>
       <c r="H3" t="n">
-        <v>1.068646837687481e-10</v>
+        <v>1.803099336505909e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248353060469</v>
+        <v>80.71248350570524</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248353060469</v>
+        <v>80.71248350570524</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248353060469</v>
+        <v>80.71248350570524</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248353060469</v>
+        <v>80.71248350570524</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750126546</v>
+        <v>292.3522750145584</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796811226</v>
+        <v>132772.1796841447</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932746974731</v>
+        <v>1.582932747000433</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439810161</v>
+        <v>334649.843982378</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785897505</v>
+        <v>418527.1785916597</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723461</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.314202041</v>
+        <v>-687417.3142073337</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007516571</v>
+        <v>717.7129007517435</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845846</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602436</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.999497963340497</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100783699</v>
+        <v>342.9081100794874</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.68559641</v>
+        <v>186130.6856006453</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261192727e-06</v>
+        <v>5.372569261070477e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094672676</v>
+        <v>132706.20947029</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418364405e-06</v>
+        <v>7.535442418192783e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124729839</v>
+        <v>0.003433462124707518</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103489053e-05</v>
+        <v>1.817140103498368e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250859183</v>
+        <v>0.02582429250873531</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796811226</v>
+        <v>132772.1796841447</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932746974731</v>
+        <v>1.582932747000433</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932746974731</v>
+        <v>1.582932747000433</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439810161</v>
+        <v>334649.843982378</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785897505</v>
+        <v>418527.1785916597</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723461</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007516571</v>
+        <v>717.7129007517435</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845846</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100783699</v>
+        <v>342.9081100794874</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.999497963340497</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103489053e-05</v>
+        <v>1.817140103498368e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250859183</v>
+        <v>0.02582429250873531</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2353764205581439</v>
+        <v>0.2353764204847642</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2353764205581439</v>
+        <v>0.2353764204847642</v>
       </c>
       <c r="DO3" t="n">
-        <v>183929.9703931689</v>
+        <v>183929.9703384708</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.742859854784467</v>
+        <v>2.742859853982841</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>306.8418912723898</v>
+        <v>306.8418883966596</v>
       </c>
       <c r="DT3" t="n">
-        <v>125.3773414821924</v>
+        <v>125.3773403071527</v>
       </c>
       <c r="DU3" t="n">
-        <v>280.0579734313501</v>
+        <v>280.0579708066394</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.8418912723898</v>
+        <v>306.8418883966596</v>
       </c>
       <c r="DX3" t="n">
-        <v>125.3773414821924</v>
+        <v>125.3773403071527</v>
       </c>
       <c r="DY3" t="n">
-        <v>280.0579734313501</v>
+        <v>280.0579708066394</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>248.6139879209452</v>
+        <v>248.6139888023134</v>
       </c>
       <c r="EB3" t="n">
-        <v>72670.28779079225</v>
+        <v>72670.28874428426</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.019019562912641</v>
+        <v>1.019019572667782</v>
       </c>
       <c r="ED3" t="n">
-        <v>303394.5299189773</v>
+        <v>303394.5305484696</v>
       </c>
       <c r="EE3" t="n">
-        <v>374708.4579686807</v>
+        <v>374708.4588511755</v>
       </c>
       <c r="EF3" t="n">
-        <v>3793.461869613677</v>
+        <v>3793.461869399688</v>
       </c>
       <c r="EG3" t="n">
-        <v>-568399.2254620203</v>
+        <v>-568399.2278697615</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2663343045255</v>
+        <v>716.2663343239459</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.832375562761</v>
+        <v>1004.832375589248</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402875337619246</v>
+        <v>1.402875337618189</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992923632754687</v>
+        <v>0.9992923632780695</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.1865750409294</v>
+        <v>316.1865756021013</v>
       </c>
       <c r="EM3" t="n">
-        <v>101875.4110722543</v>
+        <v>101875.4124091338</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.815911312404508e-06</v>
+        <v>9.815911183593338e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72619.00493962798</v>
+        <v>72619.00589263943</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.377049989643005e-05</v>
+        <v>1.377049971571366e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004035765698010571</v>
+        <v>0.004035765683742092</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.596159554998478e-05</v>
+        <v>1.596159559598835e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02244419788976198</v>
+        <v>0.02244419795962752</v>
       </c>
       <c r="ET3" t="n">
-        <v>72670.28779079225</v>
+        <v>72670.28874428426</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.019019562912641</v>
+        <v>1.019019572667782</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.019019562912641</v>
+        <v>1.019019572667782</v>
       </c>
       <c r="EW3" t="n">
-        <v>303394.5299189773</v>
+        <v>303394.5305484696</v>
       </c>
       <c r="EX3" t="n">
-        <v>374708.4579686807</v>
+        <v>374708.4588511755</v>
       </c>
       <c r="EY3" t="n">
-        <v>3793.461869613677</v>
+        <v>3793.461869399688</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2663343045255</v>
+        <v>716.2663343239459</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.832375562761</v>
+        <v>1004.832375589248</v>
       </c>
       <c r="FB3" t="n">
-        <v>316.1865750409294</v>
+        <v>316.1865756021013</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992923632754687</v>
+        <v>0.9992923632780695</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.596159554998478e-05</v>
+        <v>1.596159559598835e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02244419788976198</v>
+        <v>0.02244419795962752</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.588453739186</v>
+        <v>295.5884537394161</v>
       </c>
       <c r="FI3" t="n">
-        <v>133020.3588232271</v>
+        <v>133020.3589224375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.568465979926094</v>
+        <v>1.568465981095209</v>
       </c>
       <c r="FK3" t="n">
-        <v>336975.2222657512</v>
+        <v>336975.222265714</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="FM3" t="n">
-        <v>3793.461869621109</v>
+        <v>3793.46186940712</v>
       </c>
       <c r="FN3" t="n">
-        <v>-699519.0972711754</v>
+        <v>-699519.0972087954</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8502656716133</v>
+        <v>717.8502656718716</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.739822662015</v>
+        <v>1006.739822663644</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402437069129061</v>
+        <v>1.402437069130825</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995380147663468</v>
+        <v>0.9995380147660089</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.7973817654352</v>
+        <v>344.797381765671</v>
       </c>
       <c r="FT3" t="n">
-        <v>186467.4457853383</v>
+        <v>186467.445924584</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.362866401630245e-06</v>
+        <v>5.362866397625493e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>132959.5814956161</v>
+        <v>132959.5815947372</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.521082638433034e-06</v>
+        <v>7.521082632826082e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395470178519793</v>
+        <v>0.003395470178526339</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.83286733523771e-05</v>
+        <v>1.832867335240256e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.026066176549895</v>
+        <v>0.02606617654994395</v>
       </c>
       <c r="GA3" t="n">
-        <v>133020.3588232271</v>
+        <v>133020.3589224375</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.568465979926094</v>
+        <v>1.568465981095209</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.568465979926094</v>
+        <v>1.568465981095209</v>
       </c>
       <c r="GD3" t="n">
-        <v>336975.2222657512</v>
+        <v>336975.222265714</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GF3" t="n">
-        <v>3793.461869621109</v>
+        <v>3793.46186940712</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8502656716133</v>
+        <v>717.8502656718716</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.739822662015</v>
+        <v>1006.739822663644</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.7973817654352</v>
+        <v>344.797381765671</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995380147663468</v>
+        <v>0.9995380147660089</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.83286733523771e-05</v>
+        <v>1.832867335240256e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.026066176549895</v>
+        <v>0.02606617654994395</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.588453739186</v>
+        <v>295.5884537394161</v>
       </c>
       <c r="GP3" t="n">
-        <v>133020.3588232271</v>
+        <v>133020.3589224375</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568465979926094</v>
+        <v>1.568465981095209</v>
       </c>
       <c r="GR3" t="n">
-        <v>336975.2222657512</v>
+        <v>336975.222265714</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GT3" t="n">
-        <v>3793.461869621109</v>
+        <v>3793.46186940712</v>
       </c>
       <c r="GU3" t="n">
-        <v>-699519.0972711754</v>
+        <v>-699519.0972087954</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8502656716133</v>
+        <v>717.8502656718716</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.739822662015</v>
+        <v>1006.739822663644</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402437069129061</v>
+        <v>1.402437069130825</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995380147663468</v>
+        <v>0.9995380147660089</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.7973817654352</v>
+        <v>344.797381765671</v>
       </c>
       <c r="HA3" t="n">
-        <v>186467.4457853383</v>
+        <v>186467.445924584</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.362866401630245e-06</v>
+        <v>5.362866397625493e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>132959.5814956161</v>
+        <v>132959.5815947372</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.521082638433034e-06</v>
+        <v>7.521082632826082e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395470178519793</v>
+        <v>0.003395470178526339</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.83286733523771e-05</v>
+        <v>1.832867335240256e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.026066176549895</v>
+        <v>0.02606617654994395</v>
       </c>
       <c r="HH3" t="n">
-        <v>133020.3588232271</v>
+        <v>133020.3589224375</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568465979926094</v>
+        <v>1.568465981095209</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.568465979926094</v>
+        <v>1.568465981095209</v>
       </c>
       <c r="HK3" t="n">
-        <v>336975.2222657512</v>
+        <v>336975.222265714</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="HM3" t="n">
-        <v>3793.461869621109</v>
+        <v>3793.46186940712</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8502656716133</v>
+        <v>717.8502656718716</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.739822662015</v>
+        <v>1006.739822663644</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.7973817654352</v>
+        <v>344.797381765671</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995380147663468</v>
+        <v>0.9995380147660089</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.83286733523771e-05</v>
+        <v>1.832867335240256e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.026066176549895</v>
+        <v>0.02606617654994395</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01795407856916564</v>
+        <v>0.01795407856093873</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -10911,28 +10911,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.04927004795857669</v>
+        <v>0.049270047951562</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.08250419506698546</v>
+        <v>0.08250419505174386</v>
       </c>
       <c r="IB3" t="n">
-        <v>8.403288085545579e-06</v>
+        <v>8.402791197043014e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9704456656095219</v>
+        <v>0.9704456547921206</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9704456656095219</v>
+        <v>0.9704456547921206</v>
       </c>
       <c r="IE3" t="n">
-        <v>512458.3927022177</v>
+        <v>512458.3913282649</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.742849774195327</v>
+        <v>2.742849774746748</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>2117.884083307057</v>
+        <v>2117.884118058952</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00665696511142799</v>
+        <v>0.006656965295763376</v>
       </c>
       <c r="IL3" t="n">
         <v>0</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.01856377558633974</v>
+        <v>0.01856377603334432</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005771737557182315</v>
+        <v>0.005771737694220353</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02714521500432326</v>
+        <v>0.02714521566672633</v>
       </c>
       <c r="IQ3" t="n">
         <v>0</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01389203144723639</v>
+        <v>0.01389203142980033</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.07971792740350001</v>
+        <v>0.07971792863782824</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04153273173988279</v>
+        <v>0.04153273211474071</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1622879055949424</v>
+        <v>0.1622879078490956</v>
       </c>
       <c r="IV3" t="n">
-        <v>-1.17193449389319e-10</v>
+        <v>3.294429173905655e-10</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>264.1672628438111</v>
+        <v>264.1672634137372</v>
       </c>
       <c r="IY3" t="n">
-        <v>108.9595187837556</v>
+        <v>108.959518738521</v>
       </c>
       <c r="IZ3" t="n">
-        <v>240.6494671193011</v>
+        <v>240.649467765405</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.64027847443271</v>
+        <v>65.64027854117089</v>
       </c>
       <c r="JB3" t="n">
-        <v>132.4735320824529</v>
+        <v>132.4735324127285</v>
       </c>
       <c r="JC3" t="n">
-        <v>108.9595187837556</v>
+        <v>108.959518738521</v>
       </c>
       <c r="JD3" t="n">
-        <v>75.3462671193011</v>
+        <v>75.34626776540503</v>
       </c>
       <c r="JE3" t="n">
-        <v>34.66412852786689</v>
+        <v>34.66412876883774</v>
       </c>
       <c r="JF3" t="n">
-        <v>260.7802902450405</v>
+        <v>260.7802900950971</v>
       </c>
       <c r="JG3" t="n">
-        <v>86583.36966705031</v>
+        <v>86583.36944473772</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.157423584930219</v>
+        <v>1.157423582624239</v>
       </c>
       <c r="JI3" t="n">
-        <v>312085.273922407</v>
+        <v>312085.2738153808</v>
       </c>
       <c r="JJ3" t="n">
-        <v>386892.2597090931</v>
+        <v>386892.2595590324</v>
       </c>
       <c r="JK3" t="n">
-        <v>3791.058035497889</v>
+        <v>3791.058035659</v>
       </c>
       <c r="JL3" t="n">
-        <v>-601740.9551238394</v>
+        <v>-601740.9547474706</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.5675470245271</v>
+        <v>716.5675470202434</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.229517577024</v>
+        <v>1005.229517570804</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402839860319011</v>
+        <v>1.402839860318717</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993351460155301</v>
+        <v>0.9993351460152359</v>
       </c>
       <c r="JQ3" t="n">
-        <v>323.8405877905245</v>
+        <v>323.8405876972925</v>
       </c>
       <c r="JR3" t="n">
-        <v>121382.1668361447</v>
+        <v>121382.1665244198</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.238442483482048e-06</v>
+        <v>8.238442504639422e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>86526.03213637084</v>
+        <v>86526.03191417898</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.155721550277416e-05</v>
+        <v>1.155721553245215e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003847956673891064</v>
+        <v>0.003847956676091813</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659069868651378e-05</v>
+        <v>1.659069867882587e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02340153700076117</v>
+        <v>0.02340153698903315</v>
       </c>
       <c r="JY3" t="n">
-        <v>86583.36966705031</v>
+        <v>86583.36944473772</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.157423584930219</v>
+        <v>1.157423582624239</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.157423584930219</v>
+        <v>1.157423582624239</v>
       </c>
       <c r="KB3" t="n">
-        <v>312085.273922407</v>
+        <v>312085.2738153808</v>
       </c>
       <c r="KC3" t="n">
-        <v>386892.2597090931</v>
+        <v>386892.2595590324</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.058035497889</v>
+        <v>3791.058035659</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.5675470245271</v>
+        <v>716.5675470202434</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.229517577024</v>
+        <v>1005.229517570804</v>
       </c>
       <c r="KG3" t="n">
-        <v>323.8405877905245</v>
+        <v>323.8405876972925</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993351460155301</v>
+        <v>0.9993351460152359</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.659069868651378e-05</v>
+        <v>1.659069867882587e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02340153700076117</v>
+        <v>0.02340153698903315</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5910489674973</v>
+        <v>295.5910489675227</v>
       </c>
       <c r="KN3" t="n">
-        <v>134139.5092340712</v>
+        <v>134139.5091590657</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.581654219626021</v>
+        <v>1.581654218741078</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.8010380307</v>
+        <v>336974.8010382024</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="KR3" t="n">
-        <v>3791.058035510313</v>
+        <v>3791.058035671424</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698818.3903247638</v>
+        <v>-698818.3903722826</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8531809316919</v>
+        <v>717.8531809315053</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.758198712897</v>
+        <v>1006.758198711671</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402456972338326</v>
+        <v>1.402456972336982</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995342034561375</v>
+        <v>0.9995342034563954</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8000420522135</v>
+        <v>344.8000420521512</v>
       </c>
       <c r="KY3" t="n">
-        <v>188038.2343415676</v>
+        <v>188038.2342362914</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.318067378698741e-06</v>
+        <v>5.318067381676147e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>134077.7207788772</v>
+        <v>134077.7207039401</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.458360674621053e-06</v>
+        <v>7.458360678789593e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395544026642449</v>
+        <v>0.003395544026635183</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832896064260761e-05</v>
+        <v>1.832896064259803e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606672882650574</v>
+        <v>0.02606672882648359</v>
       </c>
       <c r="LF3" t="n">
-        <v>134139.5092340712</v>
+        <v>134139.5091590657</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.581654219626021</v>
+        <v>1.581654218741078</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.581654219626021</v>
+        <v>1.581654218741078</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.8010380307</v>
+        <v>336974.8010382024</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310885899</v>
       </c>
       <c r="LK3" t="n">
-        <v>3791.058035510313</v>
+        <v>3791.058035671424</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8531809316919</v>
+        <v>717.8531809315053</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.758198712897</v>
+        <v>1006.758198711671</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8000420522135</v>
+        <v>344.8000420521512</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995342034561375</v>
+        <v>0.9995342034563954</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832896064260761e-05</v>
+        <v>1.832896064259803e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606672882650574</v>
+        <v>0.02606672882648359</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>269.538473544307</v>
+        <v>269.538473437766</v>
       </c>
       <c r="LU3" t="n">
-        <v>97171.30601229073</v>
+        <v>97171.30582375072</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.256700543563759</v>
+        <v>1.256700541622383</v>
       </c>
       <c r="LW3" t="n">
-        <v>318344.315808128</v>
+        <v>318344.3157321045</v>
       </c>
       <c r="LX3" t="n">
-        <v>395666.8780604939</v>
+        <v>395666.8779538919</v>
       </c>
       <c r="LY3" t="n">
-        <v>3791.058035511715</v>
+        <v>3791.058035672828</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-626169.1179492128</v>
+        <v>-626169.1176953379</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.8272970299723</v>
+        <v>716.8272970263964</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.549769728143</v>
+        <v>1005.54976972289</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402778289686279</v>
+        <v>1.402778289685949</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993767516364859</v>
+        <v>0.9993767516362929</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2402680081636</v>
+        <v>329.2402679429899</v>
       </c>
       <c r="MF3" t="n">
-        <v>136225.275851784</v>
+        <v>136225.2755874085</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.340781611541907e-06</v>
+        <v>7.340781625788333e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>97111.05229768695</v>
+        <v>97111.05210924408</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.029748907399924e-05</v>
+        <v>1.02974890939814e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003723158141862371</v>
+        <v>0.003723158143323957</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.703637781272432e-05</v>
+        <v>1.703637780732978e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02408203317892084</v>
+        <v>0.02408203317066559</v>
       </c>
       <c r="MM3" t="n">
-        <v>97171.30601229073</v>
+        <v>97171.30582375072</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.256700543563759</v>
+        <v>1.256700541622383</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.256700543563759</v>
+        <v>1.256700541622383</v>
       </c>
       <c r="MP3" t="n">
-        <v>318344.315808128</v>
+        <v>318344.3157321045</v>
       </c>
       <c r="MQ3" t="n">
-        <v>395666.8780604939</v>
+        <v>395666.8779538919</v>
       </c>
       <c r="MR3" t="n">
-        <v>3791.058035511715</v>
+        <v>3791.058035672828</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.8272970299723</v>
+        <v>716.8272970263964</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.549769728143</v>
+        <v>1005.54976972289</v>
       </c>
       <c r="MU3" t="n">
-        <v>329.2402680081636</v>
+        <v>329.2402679429899</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993767516364859</v>
+        <v>0.9993767516362929</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.703637781272432e-05</v>
+        <v>1.703637780732978e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02408203317892084</v>
+        <v>0.02408203317066559</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8157324091033551</v>
+        <v>0.8157324110980971</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4090701940305984</v>
+        <v>0.4090701951682384</v>
       </c>
       <c r="NC3" t="n">
-        <v>240841.4199797974</v>
+        <v>240841.4202120148</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.707434432864459</v>
+        <v>2.707434426346339</v>
       </c>
       <c r="NE3" t="n">
-        <v>382004.3040952737</v>
+        <v>382004.303988772</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>162.4026088218235</v>
+        <v>162.402636447471</v>
       </c>
       <c r="NH3" t="n">
-        <v>138.1048172497263</v>
+        <v>138.1048325486945</v>
       </c>
       <c r="NI3" t="n">
-        <v>-85.4497911323013</v>
+        <v>-85.44981891020299</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-31.74638105861762</v>
+        <v>-31.7463865525076</v>
       </c>
       <c r="NK3" t="n">
-        <v>286.2691095968552</v>
+        <v>286.2691413091596</v>
       </c>
       <c r="NL3" t="n">
-        <v>138.1048172497263</v>
+        <v>138.1048325486945</v>
       </c>
       <c r="NM3" t="n">
-        <v>-250.7529911323013</v>
+        <v>-250.753018910203</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO3" t="n">
-        <v>228.611366426777</v>
+        <v>228.6113572511681</v>
       </c>
       <c r="NP3" t="n">
-        <v>51046.43568427953</v>
+        <v>51046.42789164813</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7784385050804216</v>
+        <v>0.7784384174972333</v>
       </c>
       <c r="NR3" t="n">
-        <v>289116.4516633722</v>
+        <v>289116.4451113293</v>
       </c>
       <c r="NS3" t="n">
-        <v>354691.8765057056</v>
+        <v>354691.8673210503</v>
       </c>
       <c r="NT3" t="n">
-        <v>3810.837623062004</v>
+        <v>3810.837626674855</v>
       </c>
       <c r="NU3" t="n">
-        <v>-516508.9197330698</v>
+        <v>-516508.8947769082</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8944413518136</v>
+        <v>715.8944412194857</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.246141442058</v>
+        <v>1004.246141236636</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402785220046902</v>
+        <v>1.402785220019253</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992796963680359</v>
+        <v>0.9992796963579932</v>
       </c>
       <c r="NZ3" t="n">
-        <v>303.1865226208876</v>
+        <v>303.1865165304159</v>
       </c>
       <c r="OA3" t="n">
-        <v>71555.67680778113</v>
+        <v>71555.66588210416</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.397513159838155e-05</v>
+        <v>1.39751337322136e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>51009.71680139937</v>
+        <v>51009.70901384465</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.960410805442007e-05</v>
+        <v>1.960411104734175e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004387307223785528</v>
+        <v>0.004387307399364432</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.490051252817763e-05</v>
+        <v>1.49005120337608e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02083784598093713</v>
+        <v>0.0208378452351781</v>
       </c>
       <c r="OH3" t="n">
-        <v>51046.43568427953</v>
+        <v>51046.42789164813</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7784385050804216</v>
+        <v>0.7784384174972333</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7784385050804216</v>
+        <v>0.7784384174972333</v>
       </c>
       <c r="OK3" t="n">
-        <v>289116.4516633722</v>
+        <v>289116.4451113293</v>
       </c>
       <c r="OL3" t="n">
-        <v>354691.8765057056</v>
+        <v>354691.8673210503</v>
       </c>
       <c r="OM3" t="n">
-        <v>3810.837623062004</v>
+        <v>3810.837626674855</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8944413518136</v>
+        <v>715.8944412194857</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.246141442058</v>
+        <v>1004.246141236636</v>
       </c>
       <c r="OP3" t="n">
-        <v>303.1865226208876</v>
+        <v>303.1865165304159</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992796963680359</v>
+        <v>0.9992796963579932</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.490051252817763e-05</v>
+        <v>1.49005120337608e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02083784598093713</v>
+        <v>0.0208378452351781</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>241.7809981319931</v>
+        <v>241.780993437786</v>
       </c>
       <c r="OW3" t="n">
-        <v>62069.49853118888</v>
+        <v>62069.49354471248</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.8949495456319514</v>
+        <v>0.8949494911144203</v>
       </c>
       <c r="OY3" t="n">
-        <v>298523.8753668522</v>
+        <v>298523.8720154621</v>
       </c>
       <c r="OZ3" t="n">
-        <v>367879.1801816723</v>
+        <v>367879.1754833947</v>
       </c>
       <c r="PA3" t="n">
-        <v>3810.837623054321</v>
+        <v>3810.837626667172</v>
       </c>
       <c r="PB3" t="n">
-        <v>-553508.9440393535</v>
+        <v>-553508.9317222885</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.1105458472747</v>
+        <v>716.1105457551683</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.544386390443</v>
+        <v>1004.544386251385</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.40277837299813</v>
+        <v>1.402778372984371</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9993124280503028</v>
+        <v>0.9993124280453165</v>
       </c>
       <c r="PG3" t="n">
-        <v>311.8066198771919</v>
+        <v>311.8066168471912</v>
       </c>
       <c r="PH3" t="n">
-        <v>87010.00919471744</v>
+        <v>87010.00220328894</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.14929306324072e-05</v>
+        <v>1.149293155588727e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62026.91092873974</v>
+        <v>62026.90594536158</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.612203453350854e-05</v>
+        <v>1.612203582878828e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004148787804176121</v>
+        <v>0.004148787884408821</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.560247685317711e-05</v>
+        <v>1.560247660547427e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02189889756672554</v>
+        <v>0.0218988971913443</v>
       </c>
       <c r="PO3" t="n">
-        <v>62069.49853118888</v>
+        <v>62069.49354471248</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.8949495456319514</v>
+        <v>0.8949494911144203</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.8949495456319514</v>
+        <v>0.8949494911144203</v>
       </c>
       <c r="PR3" t="n">
-        <v>298523.8753668522</v>
+        <v>298523.8720154621</v>
       </c>
       <c r="PS3" t="n">
-        <v>367879.1801816723</v>
+        <v>367879.1754833947</v>
       </c>
       <c r="PT3" t="n">
-        <v>3810.837623054321</v>
+        <v>3810.837626667172</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.1105458472747</v>
+        <v>716.1105457551683</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.544386390443</v>
+        <v>1004.544386251385</v>
       </c>
       <c r="PW3" t="n">
-        <v>311.8066198771919</v>
+        <v>311.8066168471912</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9993124280503028</v>
+        <v>0.9993124280453165</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.560247685317711e-05</v>
+        <v>1.560247660547427e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02189889756672554</v>
+        <v>0.0218988971913443</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>269.5203632182256</v>
+        <v>269.5203631089527</v>
       </c>
       <c r="QD3" t="n">
-        <v>90697.27339892574</v>
+        <v>90697.27212979949</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.17300351408164</v>
+        <v>1.173003498135441</v>
       </c>
       <c r="QF3" t="n">
-        <v>318346.3310115201</v>
+        <v>318346.33093605</v>
       </c>
       <c r="QG3" t="n">
-        <v>395666.8780602933</v>
+        <v>395666.8779539985</v>
       </c>
       <c r="QH3" t="n">
-        <v>3810.837623051326</v>
+        <v>3810.837626671278</v>
       </c>
       <c r="QI3" t="n">
-        <v>-631431.4622701795</v>
+        <v>-631431.4629357043</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.8061426331301</v>
+        <v>716.8061426260099</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.417218536647</v>
+        <v>1005.417218509146</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402634769344089</v>
+        <v>1.402634769319656</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9994178566020664</v>
+        <v>0.9994178566088365</v>
       </c>
       <c r="QN3" t="n">
-        <v>329.2258382024702</v>
+        <v>329.2258381350809</v>
       </c>
       <c r="QO3" t="n">
-        <v>127141.4433196477</v>
+        <v>127141.4415391955</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.865256000640867e-06</v>
+        <v>7.865256110783653e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>90644.72526879012</v>
+        <v>90644.72400100638</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.103208153629111e-05</v>
+        <v>1.103208169058905e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003722537602235166</v>
+        <v>0.003722537603587901</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.703448319225724e-05</v>
+        <v>1.703448318656085e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02407835374070697</v>
+        <v>0.02407835373185898</v>
       </c>
       <c r="QV3" t="n">
-        <v>90697.27339892574</v>
+        <v>90697.27212979949</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.17300351408164</v>
+        <v>1.173003498135441</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.17300351408164</v>
+        <v>1.173003498135441</v>
       </c>
       <c r="QY3" t="n">
-        <v>318346.3310115201</v>
+        <v>318346.33093605</v>
       </c>
       <c r="QZ3" t="n">
-        <v>395666.8780602933</v>
+        <v>395666.8779539985</v>
       </c>
       <c r="RA3" t="n">
-        <v>3810.837623051326</v>
+        <v>3810.837626671278</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.8061426331301</v>
+        <v>716.8061426260099</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.417218536647</v>
+        <v>1005.417218509146</v>
       </c>
       <c r="RD3" t="n">
-        <v>329.2258382024702</v>
+        <v>329.2258381350809</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9994178566020664</v>
+        <v>0.9994178566088365</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.703448319225724e-05</v>
+        <v>1.703448318656085e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02407835374070697</v>
+        <v>0.02407835373185898</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02723180804459635</v>
+        <v>0.02723180791075569</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
@@ -11667,55 +11667,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.08028856692157851</v>
+        <v>0.08028856771777845</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04183303511973924</v>
+        <v>0.04183303527165669</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1632522523144907</v>
+        <v>0.1632522531287675</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.380908820742711e-05</v>
+        <v>2.380872200372086e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5356524670619873</v>
+        <v>0.5356525689399469</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9442013026245681</v>
+        <v>0.9442014261885582</v>
       </c>
       <c r="RS3" t="n">
-        <v>389737.3263999412</v>
+        <v>389737.3386563053</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.707408083964451</v>
+        <v>2.707408079271316</v>
       </c>
       <c r="RU3" t="n">
-        <v>382004.3040952737</v>
+        <v>382004.303988772</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>3957.189594006981</v>
+        <v>3957.189610356989</v>
       </c>
       <c r="RX3" t="n">
-        <v>4.691883431118576</v>
+        <v>4.691884300052386</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.009686081242455975</v>
+        <v>0.009686081465504226</v>
       </c>
       <c r="RZ3" t="n">
         <v>0</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.02844531978057761</v>
+        <v>0.02844532018191835</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01481990154764161</v>
+        <v>0.01481990166103026</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004957018951563081</v>
+        <v>0.004957018938528066</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4270731748364839</v>
+        <v>0.4270731486736049</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4476684419459773</v>
+        <v>0.4476684256761496</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -12543,16 +12859,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>7.672764243512371e-08</v>
+        <v>8.126246103994768e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12577,13 +12893,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>7.492697280410988e-08</v>
+        <v>5.595072072530636e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
